--- a/data_13CO2_mouseID_paper.xlsx
+++ b/data_13CO2_mouseID_paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD4116-B90B-CE49-AEA4-C8E0267251FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE29EEB-8E77-E24F-95EA-9DB80CBC63EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="19500" activeTab="3" xr2:uid="{B9A80FEE-2658-2D41-AF06-BA51FF40098E}"/>
+    <workbookView xWindow="-5480" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{B9A80FEE-2658-2D41-AF06-BA51FF40098E}"/>
   </bookViews>
   <sheets>
     <sheet name="mouseID" sheetId="1" r:id="rId1"/>
@@ -697,7 +697,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="476">
   <si>
     <t>round</t>
   </si>
@@ -2122,6 +2122,9 @@
   </si>
   <si>
     <t>1/7/2024 17:45:00</t>
+  </si>
+  <si>
+    <t>valine</t>
   </si>
 </sst>
 </file>
@@ -4711,15 +4714,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1150114</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14739</xdr:rowOff>
+      <xdr:colOff>1081092</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1090317</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>78313</xdr:rowOff>
+      <xdr:colOff>1021295</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>16193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4742,8 +4745,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8195369" y="2953352"/>
-          <a:ext cx="4825532" cy="2714815"/>
+          <a:off x="8128212" y="3452021"/>
+          <a:ext cx="4840746" cy="2665694"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5331,10 +5334,10 @@
   <dimension ref="A1:T546"/>
   <sheetViews>
     <sheetView zoomScale="194" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H354" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="L369" sqref="L369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40204,8 +40207,8 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41016,11 +41019,11 @@
         <v>28</v>
       </c>
       <c r="D14" s="28">
-        <f t="shared" ref="D14" si="30">C14*20%</f>
+        <f t="shared" ref="D14:D15" si="30">C14*20%</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="E14" s="28">
-        <f t="shared" ref="E14" si="31">D14/1000 * B14 * 1000</f>
+        <f t="shared" ref="E14:E15" si="31">D14/1000 * B14 * 1000</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="F14" s="33">
@@ -41069,9 +41072,49 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="69" t="s">
+        <v>475</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" s="28">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="E15" s="28">
+        <f t="shared" si="31"/>
+        <v>1.2000000000000002</v>
+      </c>
       <c r="F15">
-        <f>F14*5</f>
-        <v>62.52000000000001</v>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G15" s="28">
+        <v>200</v>
+      </c>
+      <c r="H15" s="33">
+        <f t="shared" ref="H15" si="36">G15/1000 * F15</f>
+        <v>4.08</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="34">
+        <f t="shared" ref="K15" si="37">H15/E15</f>
+        <v>3.3999999999999995</v>
+      </c>
+      <c r="L15" s="36">
+        <v>4</v>
+      </c>
+      <c r="M15" s="33">
+        <f t="shared" ref="M15" si="38">H15*L15</f>
+        <v>16.32</v>
+      </c>
+      <c r="N15" s="36">
+        <f t="shared" ref="N15" si="39">M15/$M$3 * $N$3</f>
+        <v>122.4</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">

--- a/data_13CO2_mouseID_paper.xlsx
+++ b/data_13CO2_mouseID_paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE29EEB-8E77-E24F-95EA-9DB80CBC63EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E3F81-352E-4C4F-B358-FC8B438C9215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5480" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{B9A80FEE-2658-2D41-AF06-BA51FF40098E}"/>
+    <workbookView xWindow="-4060" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{B9A80FEE-2658-2D41-AF06-BA51FF40098E}"/>
   </bookViews>
   <sheets>
     <sheet name="mouseID" sheetId="1" r:id="rId1"/>
@@ -4806,9 +4806,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4846,7 +4846,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4952,7 +4952,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5094,7 +5094,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5333,11 +5333,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8ABC72A-8D2A-8541-9A19-C52B1D3D5781}">
   <dimension ref="A1:T546"/>
   <sheetViews>
-    <sheetView zoomScale="194" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H354" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="136" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G524" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L369" sqref="L369"/>
+      <selection pane="bottomRight" activeCell="K542" sqref="K542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40206,7 +40206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA56D07-E5B7-A449-BCA3-1E8AFA04B355}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
+    <sheetView zoomScale="184" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>

--- a/data_13CO2_mouseID_paper.xlsx
+++ b/data_13CO2_mouseID_paper.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E3F81-352E-4C4F-B358-FC8B438C9215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF613C6-4CC5-1848-ACF0-8538566F3578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4060" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{B9A80FEE-2658-2D41-AF06-BA51FF40098E}"/>
   </bookViews>
@@ -22,7 +22,8 @@
     <sheet name="14C" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mouseID!$A$1:$T$492</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">infusion.normalization!$A$1:$G$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mouseID!$A$1:$T$546</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5331,13 +5332,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8ABC72A-8D2A-8541-9A19-C52B1D3D5781}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T546"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G524" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K542" sqref="K542"/>
+      <selection pane="bottomRight" activeCell="C339" sqref="C339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5427,7 +5429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>44700</v>
       </c>
@@ -5456,7 +5458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>44700</v>
       </c>
@@ -5491,7 +5493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>44700</v>
       </c>
@@ -5526,7 +5528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44700</v>
       </c>
@@ -5562,7 +5564,7 @@
       </c>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>44756</v>
       </c>
@@ -5609,7 +5611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>44756</v>
       </c>
@@ -5662,7 +5664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44756</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44756</v>
       </c>
@@ -5768,7 +5770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44756</v>
       </c>
@@ -5815,7 +5817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44756</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>44757</v>
       </c>
@@ -5916,7 +5918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>44757</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>44757</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>44757</v>
       </c>
@@ -6068,7 +6070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>44757</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>44757</v>
       </c>
@@ -6168,7 +6170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>44764</v>
       </c>
@@ -6203,7 +6205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>44764</v>
       </c>
@@ -6255,7 +6257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>44764</v>
       </c>
@@ -6307,7 +6309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>44764</v>
       </c>
@@ -6359,7 +6361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>44764</v>
       </c>
@@ -6411,7 +6413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>44764</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>44764</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44767</v>
       </c>
@@ -6554,7 +6556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>44767</v>
       </c>
@@ -6609,7 +6611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>44767</v>
       </c>
@@ -6664,7 +6666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>44767</v>
       </c>
@@ -6719,7 +6721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>44767</v>
       </c>
@@ -6771,7 +6773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>44767</v>
       </c>
@@ -6826,7 +6828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>44767</v>
       </c>
@@ -6864,7 +6866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>44768</v>
       </c>
@@ -6899,7 +6901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>44768</v>
       </c>
@@ -6954,7 +6956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>44768</v>
       </c>
@@ -7009,7 +7011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>44768</v>
       </c>
@@ -7064,7 +7066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>44768</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>44768</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>44768</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>44770</v>
       </c>
@@ -7267,7 +7269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>44770</v>
       </c>
@@ -7322,7 +7324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>44770</v>
       </c>
@@ -7377,7 +7379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>44770</v>
       </c>
@@ -7432,7 +7434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>44770</v>
       </c>
@@ -7487,7 +7489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>44770</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44770</v>
       </c>
@@ -7598,7 +7600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44771</v>
       </c>
@@ -7636,7 +7638,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44771</v>
       </c>
@@ -7691,7 +7693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44771</v>
       </c>
@@ -7738,7 +7740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>44771</v>
       </c>
@@ -7793,7 +7795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>44771</v>
       </c>
@@ -7849,7 +7851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>44772</v>
       </c>
@@ -7884,7 +7886,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>44772</v>
       </c>
@@ -7939,7 +7941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>44772</v>
       </c>
@@ -7994,7 +7996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>44772</v>
       </c>
@@ -8040,7 +8042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>44772</v>
       </c>
@@ -8094,7 +8096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>44773</v>
       </c>
@@ -8128,7 +8130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>44773</v>
       </c>
@@ -8174,7 +8176,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>44773</v>
       </c>
@@ -8221,7 +8223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44774</v>
       </c>
@@ -8255,7 +8257,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>44774</v>
       </c>
@@ -8301,7 +8303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>44774</v>
       </c>
@@ -8347,7 +8349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>44774</v>
       </c>
@@ -8394,7 +8396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>44775</v>
       </c>
@@ -8428,7 +8430,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>44775</v>
       </c>
@@ -8477,7 +8479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>44775</v>
       </c>
@@ -8526,7 +8528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>44775</v>
       </c>
@@ -8575,7 +8577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>44775</v>
       </c>
@@ -8739,11 +8741,12 @@
         <v>208</v>
       </c>
       <c r="L70" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M70" s="18">
         <f>J70*L70/1000 * 3</f>
-        <v>7.3620000000000001</v>
+        <v>7.8037199999999993</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>22</v>
@@ -8792,11 +8795,12 @@
         <v>208</v>
       </c>
       <c r="L71" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M71" s="18">
         <f>J71*L71/1000 * 3</f>
-        <v>7.3620000000000001</v>
+        <v>7.8037199999999993</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>22</v>
@@ -8845,11 +8849,12 @@
         <v>208</v>
       </c>
       <c r="L72" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M72" s="18">
         <f>J72*L72/1000 * 3</f>
-        <v>7.3620000000000001</v>
+        <v>7.8037199999999993</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>22</v>
@@ -8898,11 +8903,12 @@
         <v>208</v>
       </c>
       <c r="L73" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M73" s="18">
         <f>J73*L73/1000 * 3</f>
-        <v>7.3620000000000001</v>
+        <v>7.8037199999999993</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>22</v>
@@ -8950,12 +8956,13 @@
       <c r="K74" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L74" s="4">
-        <v>12.27</v>
+      <c r="L74" s="1">
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M74" s="19">
         <f>J74*L74/1000 * 3</f>
-        <v>7.3620000000000001</v>
+        <v>7.8037199999999993</v>
       </c>
       <c r="N74" s="4" t="s">
         <v>22</v>
@@ -9039,11 +9046,12 @@
         <v>208</v>
       </c>
       <c r="L76" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M76" s="18">
         <f>J76*L76/1000 * 3</f>
-        <v>7.3620000000000001</v>
+        <v>7.8037199999999993</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>22</v>
@@ -9092,11 +9100,12 @@
         <v>208</v>
       </c>
       <c r="L77" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M77" s="18">
         <f t="shared" ref="M77:M79" si="10">J77*L77/1000 * 3</f>
-        <v>3.681</v>
+        <v>3.9018599999999997</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>22</v>
@@ -9144,11 +9153,12 @@
         <v>208</v>
       </c>
       <c r="L78" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M78" s="18">
         <f t="shared" si="10"/>
-        <v>5.5214999999999996</v>
+        <v>5.8527900000000006</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>22</v>
@@ -9195,12 +9205,13 @@
       <c r="K79" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L79" s="4">
-        <v>12.27</v>
+      <c r="L79" s="1">
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M79" s="19">
         <f t="shared" si="10"/>
-        <v>5.5214999999999996</v>
+        <v>5.8527900000000006</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>22</v>
@@ -9217,7 +9228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>44778</v>
       </c>
@@ -9248,7 +9259,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>44778</v>
       </c>
@@ -9300,7 +9311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>44778</v>
       </c>
@@ -9352,7 +9363,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>44778</v>
       </c>
@@ -9404,7 +9415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>44778</v>
       </c>
@@ -9458,7 +9469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>44779</v>
       </c>
@@ -9489,7 +9500,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>44779</v>
       </c>
@@ -9541,7 +9552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>44779</v>
       </c>
@@ -9593,7 +9604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>44779</v>
       </c>
@@ -9645,7 +9656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44779</v>
       </c>
@@ -9697,7 +9708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>44779</v>
       </c>
@@ -9751,7 +9762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>44780</v>
       </c>
@@ -9782,7 +9793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>44780</v>
       </c>
@@ -9834,7 +9845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>44780</v>
       </c>
@@ -9886,7 +9897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>44780</v>
       </c>
@@ -9938,7 +9949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>44780</v>
       </c>
@@ -9992,7 +10003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>44781</v>
       </c>
@@ -10023,7 +10034,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>44781</v>
       </c>
@@ -10072,7 +10083,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>44781</v>
       </c>
@@ -10121,7 +10132,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>44781</v>
       </c>
@@ -10171,7 +10182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>44782</v>
       </c>
@@ -10205,7 +10216,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>44782</v>
       </c>
@@ -10254,7 +10265,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>44782</v>
       </c>
@@ -10303,7 +10314,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>44782</v>
       </c>
@@ -10352,7 +10363,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>44782</v>
       </c>
@@ -10401,7 +10412,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>44782</v>
       </c>
@@ -10450,7 +10461,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>44782</v>
       </c>
@@ -10566,11 +10577,12 @@
         <v>208</v>
       </c>
       <c r="L108" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M108" s="18">
         <f t="shared" ref="M108" si="20">J108*L108/1000 * 3</f>
-        <v>8.6503499999999995</v>
+        <v>9.1693709999999999</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>22</v>
@@ -10618,11 +10630,12 @@
         <v>208</v>
       </c>
       <c r="L109" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M109" s="18">
         <f t="shared" ref="M109:M113" si="21">J109*L109/1000 * 3</f>
-        <v>3.681</v>
+        <v>3.9018599999999997</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>22</v>
@@ -10668,11 +10681,12 @@
         <v>208</v>
       </c>
       <c r="L110" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M110" s="18">
         <f t="shared" si="21"/>
-        <v>7.1779500000000009</v>
+        <v>7.6086270000000003</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>22</v>
@@ -10720,11 +10734,12 @@
         <v>208</v>
       </c>
       <c r="L111" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M111" s="18">
         <f t="shared" si="21"/>
-        <v>7.3620000000000001</v>
+        <v>7.8037199999999993</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>22</v>
@@ -10769,11 +10784,12 @@
         <v>208</v>
       </c>
       <c r="L112" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M112" s="18">
         <f t="shared" si="21"/>
-        <v>4.0491000000000001</v>
+        <v>4.292046</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>22</v>
@@ -10820,12 +10836,13 @@
       <c r="K113" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L113" s="4">
-        <v>12.27</v>
+      <c r="L113" s="1">
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M113" s="19">
         <f t="shared" si="21"/>
-        <v>7.3620000000000001</v>
+        <v>7.8037199999999993</v>
       </c>
       <c r="N113" s="4" t="s">
         <v>22</v>
@@ -10839,7 +10856,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>44784</v>
       </c>
@@ -10870,7 +10887,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>44784</v>
       </c>
@@ -10922,7 +10939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>44784</v>
       </c>
@@ -10971,7 +10988,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>44784</v>
       </c>
@@ -11020,7 +11037,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>44784</v>
       </c>
@@ -11136,11 +11153,12 @@
         <v>208</v>
       </c>
       <c r="L120" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M120" s="18">
         <f t="shared" ref="M120" si="23">J120*L120/1000 * 3</f>
-        <v>7.3620000000000001</v>
+        <v>7.8037199999999993</v>
       </c>
       <c r="N120" s="1" t="s">
         <v>22</v>
@@ -11185,11 +11203,12 @@
         <v>208</v>
       </c>
       <c r="L121" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M121" s="18">
         <f t="shared" ref="M121:M125" si="24">J121*L121/1000 * 3</f>
-        <v>6.9938999999999991</v>
+        <v>7.4135340000000003</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>22</v>
@@ -11234,11 +11253,12 @@
         <v>208</v>
       </c>
       <c r="L122" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M122" s="18">
         <f t="shared" si="24"/>
-        <v>6.9938999999999991</v>
+        <v>7.4135340000000003</v>
       </c>
       <c r="N122" s="1" t="s">
         <v>22</v>
@@ -11286,11 +11306,12 @@
         <v>208</v>
       </c>
       <c r="L123" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M123" s="18">
         <f t="shared" si="24"/>
-        <v>7.3620000000000001</v>
+        <v>7.8037199999999993</v>
       </c>
       <c r="N123" s="1" t="s">
         <v>22</v>
@@ -11380,12 +11401,13 @@
       <c r="K125" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L125" s="4">
-        <v>12.27</v>
+      <c r="L125" s="1">
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M125" s="19">
         <f t="shared" si="24"/>
-        <v>6.9938999999999991</v>
+        <v>7.4135340000000003</v>
       </c>
       <c r="N125" s="4" t="s">
         <v>22</v>
@@ -11399,7 +11421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>44786</v>
       </c>
@@ -11436,7 +11458,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>44786</v>
       </c>
@@ -11485,7 +11507,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>44786</v>
       </c>
@@ -11534,7 +11556,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>44786</v>
       </c>
@@ -11571,7 +11593,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>44786</v>
       </c>
@@ -11620,7 +11642,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>44786</v>
       </c>
@@ -11669,7 +11691,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>44786</v>
       </c>
@@ -11708,7 +11730,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>44788</v>
       </c>
@@ -11742,7 +11764,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>44788</v>
       </c>
@@ -11791,7 +11813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>44788</v>
       </c>
@@ -11840,7 +11862,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>44788</v>
       </c>
@@ -11893,7 +11915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>44788</v>
       </c>
@@ -11942,7 +11964,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>44788</v>
       </c>
@@ -11995,7 +12017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>44788</v>
       </c>
@@ -12049,7 +12071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>44789</v>
       </c>
@@ -12083,7 +12105,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>44789</v>
       </c>
@@ -12132,7 +12154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>44789</v>
       </c>
@@ -12185,7 +12207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>44789</v>
       </c>
@@ -12234,7 +12256,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>44789</v>
       </c>
@@ -12288,7 +12310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>44790</v>
       </c>
@@ -12323,7 +12345,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>44790</v>
       </c>
@@ -12375,7 +12397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>44790</v>
       </c>
@@ -12425,7 +12447,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>44790</v>
       </c>
@@ -12478,7 +12500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>44790</v>
       </c>
@@ -12529,7 +12551,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>44791</v>
       </c>
@@ -12563,7 +12585,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>44791</v>
       </c>
@@ -12615,7 +12637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>44791</v>
       </c>
@@ -12664,7 +12686,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>44791</v>
       </c>
@@ -12713,7 +12735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="154" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>44791</v>
       </c>
@@ -12768,7 +12790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>44792</v>
       </c>
@@ -12802,7 +12824,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>44792</v>
       </c>
@@ -12854,7 +12876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>44792</v>
       </c>
@@ -12907,7 +12929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>44792</v>
       </c>
@@ -12958,7 +12980,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>44793</v>
       </c>
@@ -12992,7 +13014,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>44793</v>
       </c>
@@ -13044,7 +13066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>44793</v>
       </c>
@@ -13096,7 +13118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>44793</v>
       </c>
@@ -13151,7 +13173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>44794</v>
       </c>
@@ -13185,7 +13207,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>44794</v>
       </c>
@@ -13238,7 +13260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>44794</v>
       </c>
@@ -13288,7 +13310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>44794</v>
       </c>
@@ -13337,7 +13359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>44794</v>
       </c>
@@ -13391,7 +13413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>44795</v>
       </c>
@@ -13425,7 +13447,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>44795</v>
       </c>
@@ -13474,7 +13496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>44795</v>
       </c>
@@ -13523,7 +13545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>44795</v>
       </c>
@@ -13575,7 +13597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>44795</v>
       </c>
@@ -13629,7 +13651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>44796</v>
       </c>
@@ -13663,7 +13685,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>44796</v>
       </c>
@@ -13715,7 +13737,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>44796</v>
       </c>
@@ -13767,7 +13789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>44796</v>
       </c>
@@ -13819,7 +13841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>44796</v>
       </c>
@@ -13873,7 +13895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>44798</v>
       </c>
@@ -13914,7 +13936,7 @@
         <v>153.99999999906868</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>44798</v>
       </c>
@@ -13974,7 +13996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>44798</v>
       </c>
@@ -14034,7 +14056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>44798</v>
       </c>
@@ -14097,7 +14119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>44799</v>
       </c>
@@ -14138,7 +14160,7 @@
         <v>152.99999999580905</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>44799</v>
       </c>
@@ -14200,7 +14222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>44799</v>
       </c>
@@ -14262,7 +14284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>44799</v>
       </c>
@@ -14324,7 +14346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>44799</v>
       </c>
@@ -14383,7 +14405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>44801</v>
       </c>
@@ -14424,7 +14446,7 @@
         <v>152.0000000030268</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>44801</v>
       </c>
@@ -14483,7 +14505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>44801</v>
       </c>
@@ -14545,7 +14567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>44801</v>
       </c>
@@ -14604,7 +14626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>44801</v>
       </c>
@@ -14666,7 +14688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>44803</v>
       </c>
@@ -14707,7 +14729,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>44803</v>
       </c>
@@ -14763,7 +14785,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>44803</v>
       </c>
@@ -14819,7 +14841,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>44803</v>
       </c>
@@ -14875,7 +14897,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="196" spans="1:18" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>44803</v>
       </c>
@@ -14925,7 +14947,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>44804</v>
       </c>
@@ -14966,7 +14988,7 @@
         <v>200.00000000232831</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>44804</v>
       </c>
@@ -15025,7 +15047,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>44804</v>
       </c>
@@ -15081,7 +15103,7 @@
         <v>200.00000000232831</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>44804</v>
       </c>
@@ -15140,7 +15162,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>44804</v>
       </c>
@@ -15199,7 +15221,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>44804</v>
       </c>
@@ -15255,7 +15277,7 @@
         <v>200.00000000232831</v>
       </c>
     </row>
-    <row r="203" spans="1:18" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>44804</v>
       </c>
@@ -15314,7 +15336,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>44806</v>
       </c>
@@ -15364,7 +15386,7 @@
         <v>201.99999999837019</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>44806</v>
       </c>
@@ -15420,7 +15442,7 @@
         <v>201.99999999837019</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>44806</v>
       </c>
@@ -15476,7 +15498,7 @@
         <v>201.99999999837019</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>44806</v>
       </c>
@@ -15532,7 +15554,7 @@
         <v>201.99999999837019</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>44806</v>
       </c>
@@ -15588,7 +15610,7 @@
         <v>201.99999999837019</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>44806</v>
       </c>
@@ -15644,7 +15666,7 @@
         <v>201.99999999837019</v>
       </c>
     </row>
-    <row r="210" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>44806</v>
       </c>
@@ -15724,11 +15746,12 @@
         <v>208</v>
       </c>
       <c r="L211" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M211" s="18">
         <f t="shared" ref="M211" si="56">J211*L211/1000 * 3</f>
-        <v>7.3619999999999991E-2</v>
+        <v>7.8037200000000001E-2</v>
       </c>
       <c r="N211" s="1" t="s">
         <v>225</v>
@@ -15780,11 +15803,12 @@
         <v>208</v>
       </c>
       <c r="L212" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M212" s="18">
         <f t="shared" ref="M212:M217" si="59">J212*L212/1000 * 3</f>
-        <v>7.3619999999999991E-2</v>
+        <v>7.8037200000000001E-2</v>
       </c>
       <c r="N212" s="1" t="s">
         <v>225</v>
@@ -15836,11 +15860,12 @@
         <v>208</v>
       </c>
       <c r="L213" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M213" s="18">
         <f t="shared" si="59"/>
-        <v>7.3619999999999991E-2</v>
+        <v>7.8037200000000001E-2</v>
       </c>
       <c r="N213" s="1" t="s">
         <v>225</v>
@@ -15892,11 +15917,12 @@
         <v>208</v>
       </c>
       <c r="L214" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M214" s="18">
         <f t="shared" si="59"/>
-        <v>7.3619999999999991E-2</v>
+        <v>7.8037200000000001E-2</v>
       </c>
       <c r="N214" s="1" t="s">
         <v>225</v>
@@ -15948,11 +15974,12 @@
         <v>208</v>
       </c>
       <c r="L215" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M215" s="18">
         <f t="shared" si="59"/>
-        <v>7.3619999999999991E-2</v>
+        <v>7.8037200000000001E-2</v>
       </c>
       <c r="N215" s="1" t="s">
         <v>225</v>
@@ -16004,11 +16031,12 @@
         <v>208</v>
       </c>
       <c r="L216" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M216" s="18">
         <f t="shared" si="59"/>
-        <v>7.3619999999999991E-2</v>
+        <v>7.8037200000000001E-2</v>
       </c>
       <c r="N216" s="1" t="s">
         <v>225</v>
@@ -16060,11 +16088,12 @@
         <v>208</v>
       </c>
       <c r="L217" s="1">
-        <v>12.27</v>
+        <f>12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="M217" s="19">
         <f t="shared" si="59"/>
-        <v>7.3619999999999991E-2</v>
+        <v>7.8037200000000001E-2</v>
       </c>
       <c r="N217" s="4" t="s">
         <v>225</v>
@@ -16080,7 +16109,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>44812</v>
       </c>
@@ -16121,7 +16150,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>44812</v>
       </c>
@@ -16177,7 +16206,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>44812</v>
       </c>
@@ -16233,7 +16262,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>44812</v>
       </c>
@@ -16289,7 +16318,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>44812</v>
       </c>
@@ -16345,7 +16374,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>44812</v>
       </c>
@@ -16401,7 +16430,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="224" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>44812</v>
       </c>
@@ -16457,7 +16486,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>44813</v>
       </c>
@@ -16507,7 +16536,7 @@
         <v>210.00000000349246</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>44813</v>
       </c>
@@ -16563,7 +16592,7 @@
         <v>210.00000000349246</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>44813</v>
       </c>
@@ -16619,7 +16648,7 @@
         <v>210.00000000349246</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>44813</v>
       </c>
@@ -16675,7 +16704,7 @@
         <v>210.00000000349246</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>44813</v>
       </c>
@@ -16731,7 +16760,7 @@
         <v>210.00000000349246</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>44813</v>
       </c>
@@ -16787,7 +16816,7 @@
         <v>210.00000000349246</v>
       </c>
     </row>
-    <row r="231" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>44813</v>
       </c>
@@ -16843,7 +16872,7 @@
         <v>210.00000000349246</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>44816</v>
       </c>
@@ -16893,7 +16922,7 @@
         <v>205.00000000814907</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>44816</v>
       </c>
@@ -16946,7 +16975,7 @@
         <v>205.00000000814907</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>44816</v>
       </c>
@@ -16999,7 +17028,7 @@
         <v>205.00000000814907</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>44816</v>
       </c>
@@ -17052,7 +17081,7 @@
         <v>205.00000000814907</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="57">
         <v>44816</v>
       </c>
@@ -17105,7 +17134,7 @@
         <v>205.00000000814907</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>44816</v>
       </c>
@@ -17158,7 +17187,7 @@
         <v>205.00000000814907</v>
       </c>
     </row>
-    <row r="238" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>44816</v>
       </c>
@@ -17238,11 +17267,12 @@
         <v>208</v>
       </c>
       <c r="L239" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M239" s="18">
         <f t="shared" si="70"/>
-        <v>7.3800000000000004E-2</v>
+        <v>7.822800000000002E-2</v>
       </c>
       <c r="N239" s="1" t="s">
         <v>225</v>
@@ -17291,11 +17321,12 @@
         <v>208</v>
       </c>
       <c r="L240" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M240" s="18">
         <f t="shared" si="70"/>
-        <v>7.3800000000000004E-2</v>
+        <v>7.822800000000002E-2</v>
       </c>
       <c r="N240" s="1" t="s">
         <v>225</v>
@@ -17344,11 +17375,12 @@
         <v>208</v>
       </c>
       <c r="L241" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M241" s="18">
         <f t="shared" si="70"/>
-        <v>7.3800000000000004E-2</v>
+        <v>7.822800000000002E-2</v>
       </c>
       <c r="N241" s="1" t="s">
         <v>225</v>
@@ -17397,11 +17429,12 @@
         <v>208</v>
       </c>
       <c r="L242" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M242" s="18">
         <f t="shared" si="70"/>
-        <v>7.3800000000000004E-2</v>
+        <v>7.822800000000002E-2</v>
       </c>
       <c r="N242" s="1" t="s">
         <v>225</v>
@@ -17450,11 +17483,12 @@
         <v>208</v>
       </c>
       <c r="L243" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M243" s="18">
         <f t="shared" si="70"/>
-        <v>7.3800000000000004E-2</v>
+        <v>7.822800000000002E-2</v>
       </c>
       <c r="N243" s="1" t="s">
         <v>225</v>
@@ -17503,11 +17537,12 @@
         <v>208</v>
       </c>
       <c r="L244" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M244" s="18">
         <f t="shared" si="70"/>
-        <v>7.3800000000000004E-2</v>
+        <v>7.822800000000002E-2</v>
       </c>
       <c r="N244" s="1" t="s">
         <v>225</v>
@@ -17555,12 +17590,13 @@
       <c r="K245" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L245" s="4">
-        <v>12.3</v>
+      <c r="L245" s="1">
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M245" s="19">
         <f t="shared" si="70"/>
-        <v>7.3800000000000004E-2</v>
+        <v>7.822800000000002E-2</v>
       </c>
       <c r="N245" s="4" t="s">
         <v>225</v>
@@ -17576,7 +17612,7 @@
         <v>198.99999999906868</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>44819</v>
       </c>
@@ -17623,7 +17659,7 @@
         <v>204.99999999767169</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>44819</v>
       </c>
@@ -17676,7 +17712,7 @@
         <v>204.99999999767169</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>44819</v>
       </c>
@@ -17729,7 +17765,7 @@
         <v>204.99999999767169</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>44819</v>
       </c>
@@ -17782,7 +17818,7 @@
         <v>204.99999999767169</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>44819</v>
       </c>
@@ -17835,7 +17871,7 @@
         <v>204.99999999767169</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>44819</v>
       </c>
@@ -17888,7 +17924,7 @@
         <v>204.99999999767169</v>
       </c>
     </row>
-    <row r="252" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>44819</v>
       </c>
@@ -17941,7 +17977,7 @@
         <v>204.99999999767169</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>44820</v>
       </c>
@@ -17988,7 +18024,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>44820</v>
       </c>
@@ -18041,7 +18077,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>44820</v>
       </c>
@@ -18094,7 +18130,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>44820</v>
       </c>
@@ -18147,7 +18183,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>44820</v>
       </c>
@@ -18200,7 +18236,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>44820</v>
       </c>
@@ -18253,7 +18289,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="259" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>44820</v>
       </c>
@@ -18306,7 +18342,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>44823</v>
       </c>
@@ -18353,7 +18389,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>44823</v>
       </c>
@@ -18409,7 +18445,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>44823</v>
       </c>
@@ -18465,7 +18501,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>44823</v>
       </c>
@@ -18521,7 +18557,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>44823</v>
       </c>
@@ -18577,7 +18613,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>44823</v>
       </c>
@@ -18633,7 +18669,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="266" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>44823</v>
       </c>
@@ -18689,7 +18725,7 @@
         <v>207.9999999969732</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>44824</v>
       </c>
@@ -18736,7 +18772,7 @@
         <v>200.00000000232831</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>44824</v>
       </c>
@@ -18792,7 +18828,7 @@
         <v>200.00000000232831</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>44824</v>
       </c>
@@ -18848,7 +18884,7 @@
         <v>200.00000000232831</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>44824</v>
       </c>
@@ -18904,7 +18940,7 @@
         <v>200.00000000232831</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>44824</v>
       </c>
@@ -18960,7 +18996,7 @@
         <v>200.00000000232831</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>44824</v>
       </c>
@@ -19016,7 +19052,7 @@
         <v>200.00000000232831</v>
       </c>
     </row>
-    <row r="273" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>44824</v>
       </c>
@@ -19072,7 +19108,7 @@
         <v>200.00000000232831</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>44825</v>
       </c>
@@ -19119,7 +19155,7 @@
         <v>205.99999999045394</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>44825</v>
       </c>
@@ -19175,7 +19211,7 @@
         <v>205.99999999045394</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>44825</v>
       </c>
@@ -19231,7 +19267,7 @@
         <v>205.99999999045394</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>44825</v>
       </c>
@@ -19287,7 +19323,7 @@
         <v>205.99999999045394</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>44825</v>
       </c>
@@ -19343,7 +19379,7 @@
         <v>205.99999999045394</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>44825</v>
       </c>
@@ -19399,7 +19435,7 @@
         <v>205.99999999045394</v>
       </c>
     </row>
-    <row r="280" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>44825</v>
       </c>
@@ -19455,7 +19491,7 @@
         <v>205.99999999045394</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>44827</v>
       </c>
@@ -19493,7 +19529,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>44827</v>
       </c>
@@ -19546,7 +19582,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>44827</v>
       </c>
@@ -19602,7 +19638,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>44827</v>
       </c>
@@ -19658,7 +19694,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>44827</v>
       </c>
@@ -19714,7 +19750,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>44827</v>
       </c>
@@ -19770,7 +19806,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="287" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>44827</v>
       </c>
@@ -19826,7 +19862,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>44831</v>
       </c>
@@ -19873,7 +19909,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>44831</v>
       </c>
@@ -19929,7 +19965,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>44831</v>
       </c>
@@ -19985,7 +20021,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>44831</v>
       </c>
@@ -20041,7 +20077,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>44831</v>
       </c>
@@ -20097,7 +20133,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>44831</v>
       </c>
@@ -20153,7 +20189,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="294" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
         <v>44831</v>
       </c>
@@ -20209,7 +20245,7 @@
         <v>217.99999999813735</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>44850</v>
       </c>
@@ -20256,7 +20292,7 @@
         <v>202.99999999115244</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>44850</v>
       </c>
@@ -20315,7 +20351,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>44850</v>
       </c>
@@ -20374,7 +20410,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>44850</v>
       </c>
@@ -20469,11 +20505,12 @@
         <v>208</v>
       </c>
       <c r="L299" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M299" s="18">
         <f t="shared" ref="M299:M301" si="105">J299*L299/1000 * 3</f>
-        <v>7.3800000000000004E-2</v>
+        <v>7.822800000000002E-2</v>
       </c>
       <c r="N299" s="1" t="s">
         <v>225</v>
@@ -20528,11 +20565,12 @@
         <v>208</v>
       </c>
       <c r="L300" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M300" s="18">
         <f t="shared" si="105"/>
-        <v>7.3800000000000004E-2</v>
+        <v>7.822800000000002E-2</v>
       </c>
       <c r="N300" s="1" t="s">
         <v>225</v>
@@ -20578,11 +20616,12 @@
         <v>208</v>
       </c>
       <c r="L301" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M301" s="18">
         <f t="shared" si="105"/>
-        <v>7.3800000000000004E-2</v>
+        <v>7.822800000000002E-2</v>
       </c>
       <c r="N301" s="1" t="s">
         <v>225</v>
@@ -20601,7 +20640,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="302" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
         <v>44850</v>
       </c>
@@ -20660,7 +20699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>44851</v>
       </c>
@@ -20707,7 +20746,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>44851</v>
       </c>
@@ -20763,7 +20802,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>44851</v>
       </c>
@@ -20819,7 +20858,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>44851</v>
       </c>
@@ -20875,7 +20914,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>44851</v>
       </c>
@@ -20931,7 +20970,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>44851</v>
       </c>
@@ -20987,7 +21026,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>44851</v>
       </c>
@@ -21037,7 +21076,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>44851</v>
       </c>
@@ -21087,7 +21126,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="311" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <v>44851</v>
       </c>
@@ -21137,7 +21176,7 @@
         <v>206.00000000093132</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>44852</v>
       </c>
@@ -21184,7 +21223,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>44852</v>
       </c>
@@ -21240,7 +21279,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>44852</v>
       </c>
@@ -21296,7 +21335,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>44852</v>
       </c>
@@ -21352,7 +21391,7 @@
         <v>140.99999999860302</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>44852</v>
       </c>
@@ -21408,7 +21447,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>44852</v>
       </c>
@@ -21464,7 +21503,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>44852</v>
       </c>
@@ -21520,7 +21559,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="319" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <v>44852</v>
       </c>
@@ -21576,7 +21615,7 @@
         <v>204.00000000488944</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>44853</v>
       </c>
@@ -21614,7 +21653,7 @@
       </c>
       <c r="P320" s="9"/>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>44853</v>
       </c>
@@ -21664,7 +21703,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>44853</v>
       </c>
@@ -21714,7 +21753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="323" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
         <v>44853</v>
       </c>
@@ -21765,7 +21804,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>44853</v>
       </c>
@@ -21803,7 +21842,7 @@
       </c>
       <c r="P324" s="9"/>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>44853</v>
       </c>
@@ -21852,7 +21891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>44853</v>
       </c>
@@ -21901,7 +21940,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="327" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
         <v>44853</v>
       </c>
@@ -21952,7 +21991,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>44854</v>
       </c>
@@ -21989,7 +22028,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>44854</v>
       </c>
@@ -22035,7 +22074,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>44854</v>
       </c>
@@ -22084,7 +22123,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="331" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
         <v>44854</v>
       </c>
@@ -22132,7 +22171,7 @@
       <c r="P331" s="25"/>
       <c r="Q331" s="19"/>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
         <v>44854</v>
       </c>
@@ -22167,7 +22206,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>44854</v>
       </c>
@@ -22217,7 +22256,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>44854</v>
       </c>
@@ -22267,7 +22306,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>44854</v>
       </c>
@@ -22316,7 +22355,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>44854</v>
       </c>
@@ -22365,7 +22404,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="337" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
         <v>44854</v>
       </c>
@@ -22493,11 +22532,12 @@
         <v>208</v>
       </c>
       <c r="L339" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M339" s="18">
         <f t="shared" ref="M339:M342" si="118">J339*L339/1000 * 3</f>
-        <v>8.4870000000000001E-2</v>
+        <v>8.9962200000000006E-2</v>
       </c>
       <c r="N339" s="1" t="s">
         <v>225</v>
@@ -22549,11 +22589,12 @@
         <v>208</v>
       </c>
       <c r="L340" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M340" s="18">
         <f t="shared" si="118"/>
-        <v>8.4870000000000001E-2</v>
+        <v>8.9962200000000006E-2</v>
       </c>
       <c r="N340" s="1" t="s">
         <v>225</v>
@@ -22605,11 +22646,12 @@
         <v>208</v>
       </c>
       <c r="L341" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M341" s="18">
         <f t="shared" si="118"/>
-        <v>8.4870000000000001E-2</v>
+        <v>8.9962200000000006E-2</v>
       </c>
       <c r="N341" s="1" t="s">
         <v>225</v>
@@ -22661,11 +22703,12 @@
         <v>208</v>
       </c>
       <c r="L342" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M342" s="18">
         <f t="shared" si="118"/>
-        <v>8.4870000000000001E-2</v>
+        <v>8.9962200000000006E-2</v>
       </c>
       <c r="N342" s="1" t="s">
         <v>225</v>
@@ -22716,12 +22759,13 @@
       <c r="K343" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L343" s="4">
-        <v>12.3</v>
+      <c r="L343" s="1">
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M343" s="19">
         <f t="shared" ref="M343:M347" si="119">J343*L343/1000 * 3</f>
-        <v>7.7490000000000003E-2</v>
+        <v>8.2139400000000015E-2</v>
       </c>
       <c r="N343" s="4" t="s">
         <v>225</v>
@@ -22767,11 +22811,12 @@
         <v>208</v>
       </c>
       <c r="L344" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M344" s="18">
         <f t="shared" si="119"/>
-        <v>7.38</v>
+        <v>7.8228000000000018</v>
       </c>
       <c r="N344" s="1" t="s">
         <v>22</v>
@@ -22810,11 +22855,12 @@
         <v>208</v>
       </c>
       <c r="L345" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M345" s="18">
         <f t="shared" si="119"/>
-        <v>7.38</v>
+        <v>7.8228000000000018</v>
       </c>
       <c r="N345" s="1" t="s">
         <v>22</v>
@@ -22859,11 +22905,12 @@
         <v>208</v>
       </c>
       <c r="L346" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M346" s="18">
         <f t="shared" si="119"/>
-        <v>7.38</v>
+        <v>7.8228000000000018</v>
       </c>
       <c r="N346" s="1" t="s">
         <v>22</v>
@@ -22908,11 +22955,12 @@
         <v>208</v>
       </c>
       <c r="L347" s="1">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M347" s="18">
         <f t="shared" si="119"/>
-        <v>7.38</v>
+        <v>7.8228000000000018</v>
       </c>
       <c r="N347" s="1" t="s">
         <v>22</v>
@@ -22953,12 +23001,13 @@
       <c r="K348" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L348" s="4">
-        <v>12.3</v>
+      <c r="L348" s="1">
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="M348" s="19">
         <f t="shared" ref="M348" si="121">J348*L348/1000 * 3</f>
-        <v>7.38</v>
+        <v>7.8228000000000018</v>
       </c>
       <c r="N348" s="4" t="s">
         <v>22</v>
@@ -22972,7 +23021,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>44857</v>
       </c>
@@ -23013,7 +23062,7 @@
         <v>216.99999999487773</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
         <v>44857</v>
       </c>
@@ -23069,7 +23118,7 @@
         <v>216.99999999487773</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>44857</v>
       </c>
@@ -23125,7 +23174,7 @@
         <v>216.99999999487773</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>44857</v>
       </c>
@@ -23181,7 +23230,7 @@
         <v>216.99999999487773</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>44857</v>
       </c>
@@ -23237,7 +23286,7 @@
         <v>216.99999999487773</v>
       </c>
     </row>
-    <row r="354" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
         <v>44857</v>
       </c>
@@ -23293,7 +23342,7 @@
         <v>216.99999999487773</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>44859</v>
       </c>
@@ -23331,7 +23380,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>44859</v>
       </c>
@@ -23387,7 +23436,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>44859</v>
       </c>
@@ -23443,7 +23492,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>44859</v>
       </c>
@@ -23499,7 +23548,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>44859</v>
       </c>
@@ -23555,7 +23604,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="360" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
         <v>44859</v>
       </c>
@@ -23611,7 +23660,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>44859</v>
       </c>
@@ -23645,7 +23694,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
         <v>44859</v>
       </c>
@@ -23694,7 +23743,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>44859</v>
       </c>
@@ -23743,7 +23792,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="364" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
         <v>44859</v>
       </c>
@@ -23794,7 +23843,7 @@
       <c r="P364" s="25"/>
       <c r="Q364" s="19"/>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
         <v>44860</v>
       </c>
@@ -23832,7 +23881,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
         <v>44860</v>
       </c>
@@ -23888,7 +23937,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>44860</v>
       </c>
@@ -23944,7 +23993,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>44860</v>
       </c>
@@ -24000,7 +24049,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>44860</v>
       </c>
@@ -24056,7 +24105,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>44860</v>
       </c>
@@ -24112,7 +24161,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>44860</v>
       </c>
@@ -24168,7 +24217,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="372" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
         <v>44860</v>
       </c>
@@ -24224,7 +24273,7 @@
         <v>219.00000000139698</v>
       </c>
     </row>
-    <row r="373" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>44860</v>
       </c>
@@ -24261,7 +24310,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
         <v>44860</v>
       </c>
@@ -24310,7 +24359,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>44860</v>
       </c>
@@ -24356,7 +24405,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="376" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
         <v>44860</v>
       </c>
@@ -24407,7 +24456,7 @@
       <c r="P376" s="25"/>
       <c r="Q376" s="19"/>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>44861</v>
       </c>
@@ -24438,7 +24487,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
         <v>44861</v>
       </c>
@@ -24494,7 +24543,7 @@
         <v>194.99999999650754</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>44861</v>
       </c>
@@ -24550,7 +24599,7 @@
         <v>194.99999999650754</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
         <v>44861</v>
       </c>
@@ -24606,7 +24655,7 @@
         <v>194.99999999650754</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
         <v>44861</v>
       </c>
@@ -24662,7 +24711,7 @@
         <v>194.99999999650754</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
         <v>44861</v>
       </c>
@@ -24718,7 +24767,7 @@
         <v>194.99999999650754</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>44861</v>
       </c>
@@ -24774,7 +24823,7 @@
         <v>194.99999999650754</v>
       </c>
     </row>
-    <row r="384" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
         <v>44861</v>
       </c>
@@ -24830,7 +24879,7 @@
         <v>194.99999999650754</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>44862</v>
       </c>
@@ -24867,7 +24916,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
         <v>44862</v>
       </c>
@@ -24919,7 +24968,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>44862</v>
       </c>
@@ -24970,7 +25019,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="388" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
         <v>44862</v>
       </c>
@@ -25024,7 +25073,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
         <v>44862</v>
       </c>
@@ -25058,7 +25107,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
         <v>44862</v>
       </c>
@@ -25110,7 +25159,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>44862</v>
       </c>
@@ -25162,7 +25211,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
         <v>44862</v>
       </c>
@@ -25214,7 +25263,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="393" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
         <v>44862</v>
       </c>
@@ -25268,7 +25317,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
         <v>44864</v>
       </c>
@@ -25302,7 +25351,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>44864</v>
       </c>
@@ -25358,7 +25407,7 @@
         <v>203.99999999441206</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
         <v>44864</v>
       </c>
@@ -25414,7 +25463,7 @@
         <v>203.99999999441206</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>44864</v>
       </c>
@@ -25470,7 +25519,7 @@
         <v>203.99999999441206</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
         <v>44864</v>
       </c>
@@ -25526,7 +25575,7 @@
         <v>203.99999999441206</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>44864</v>
       </c>
@@ -25582,7 +25631,7 @@
         <v>203.99999999441206</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>44864</v>
       </c>
@@ -25638,7 +25687,7 @@
         <v>203.99999999441206</v>
       </c>
     </row>
-    <row r="401" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
         <v>44864</v>
       </c>
@@ -25694,7 +25743,7 @@
         <v>203.99999999441206</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
         <v>44865</v>
       </c>
@@ -25728,7 +25777,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>44865</v>
       </c>
@@ -25781,7 +25830,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>44865</v>
       </c>
@@ -25833,7 +25882,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
         <v>44865</v>
       </c>
@@ -25885,7 +25934,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="406" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
         <v>44865</v>
       </c>
@@ -25939,7 +25988,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
         <v>44865</v>
       </c>
@@ -25973,7 +26022,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
         <v>44865</v>
       </c>
@@ -26025,7 +26074,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
         <v>44865</v>
       </c>
@@ -26077,7 +26126,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
         <v>44865</v>
       </c>
@@ -26129,7 +26178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
         <v>44865</v>
       </c>
@@ -26183,7 +26232,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
         <v>44866</v>
       </c>
@@ -26217,7 +26266,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>44866</v>
       </c>
@@ -26266,7 +26315,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
         <v>44866</v>
       </c>
@@ -26315,7 +26364,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>44866</v>
       </c>
@@ -26364,7 +26413,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="416" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
         <v>44866</v>
       </c>
@@ -26415,7 +26464,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
         <v>44866</v>
       </c>
@@ -26449,7 +26498,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
         <v>44866</v>
       </c>
@@ -26501,7 +26550,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>44866</v>
       </c>
@@ -26553,7 +26602,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
         <v>44866</v>
       </c>
@@ -26605,7 +26654,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="421" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
         <v>44866</v>
       </c>
@@ -26659,7 +26708,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
         <v>44867</v>
       </c>
@@ -26693,7 +26742,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>44867</v>
       </c>
@@ -26742,7 +26791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>44867</v>
       </c>
@@ -26791,7 +26840,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
         <v>44867</v>
       </c>
@@ -26840,7 +26889,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="426" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
         <v>44867</v>
       </c>
@@ -26891,7 +26940,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>44867</v>
       </c>
@@ -26931,7 +26980,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
         <v>44867</v>
       </c>
@@ -26983,7 +27032,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
         <v>44867</v>
       </c>
@@ -27035,7 +27084,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
         <v>44867</v>
       </c>
@@ -27088,7 +27137,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="431" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
         <v>44867</v>
       </c>
@@ -27142,7 +27191,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>44868</v>
       </c>
@@ -27176,7 +27225,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
         <v>44868</v>
       </c>
@@ -27225,7 +27274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="3">
         <v>44868</v>
       </c>
@@ -27275,7 +27324,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="435" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
         <v>44868</v>
       </c>
@@ -27326,7 +27375,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3">
         <v>44868</v>
       </c>
@@ -27360,7 +27409,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3">
         <v>44868</v>
       </c>
@@ -27409,7 +27458,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3">
         <v>44868</v>
       </c>
@@ -27455,7 +27504,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="439" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
         <v>44868</v>
       </c>
@@ -27506,7 +27555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="3">
         <v>44870</v>
       </c>
@@ -27534,7 +27583,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
         <v>44870</v>
       </c>
@@ -27584,7 +27633,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="442" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
         <v>44870</v>
       </c>
@@ -27634,7 +27683,7 @@
         <v>225.01666666008532</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
         <v>44870</v>
       </c>
@@ -27685,7 +27734,7 @@
         <v>225.03333333064802</v>
       </c>
     </row>
-    <row r="444" spans="1:20" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
         <v>44870</v>
       </c>
@@ -27736,7 +27785,7 @@
         <v>225.05000000121072</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="59">
         <v>45091</v>
       </c>
@@ -27773,7 +27822,7 @@
         <v>258.99999999557622</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="59">
         <v>45091</v>
       </c>
@@ -27832,7 +27881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="59">
         <v>45091</v>
       </c>
@@ -27891,7 +27940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="59">
         <v>45091</v>
       </c>
@@ -27950,7 +27999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="59">
         <v>45091</v>
       </c>
@@ -28009,7 +28058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="59">
         <v>45091</v>
       </c>
@@ -28068,7 +28117,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="59">
         <v>45091</v>
       </c>
@@ -28127,7 +28176,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="452" spans="1:18" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A452" s="60">
         <v>45091</v>
       </c>
@@ -28186,7 +28235,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="59">
         <v>45092</v>
       </c>
@@ -28223,7 +28272,7 @@
         <v>261.00000000209548</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="59">
         <v>45092</v>
       </c>
@@ -28282,7 +28331,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="59">
         <v>45092</v>
       </c>
@@ -28341,7 +28390,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="59">
         <v>45092</v>
       </c>
@@ -28400,7 +28449,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="59">
         <v>45092</v>
       </c>
@@ -28459,7 +28508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:18" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A458" s="60">
         <v>45092</v>
       </c>
@@ -28518,7 +28567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="59">
         <v>45097</v>
       </c>
@@ -28555,7 +28604,7 @@
         <v>256.99999999953434</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="59">
         <v>45097</v>
       </c>
@@ -28614,7 +28663,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="59">
         <v>45097</v>
       </c>
@@ -28673,7 +28722,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="59">
         <v>45097</v>
       </c>
@@ -28732,7 +28781,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="59">
         <v>45097</v>
       </c>
@@ -28791,7 +28840,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="59">
         <v>45097</v>
       </c>
@@ -28850,7 +28899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="59">
         <v>45097</v>
       </c>
@@ -28909,7 +28958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:18" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:18" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A466" s="60">
         <v>45097</v>
       </c>
@@ -28968,7 +29017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="59">
         <v>45098</v>
       </c>
@@ -29005,7 +29054,7 @@
         <v>254.99999999301508</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="59">
         <v>45098</v>
       </c>
@@ -29064,7 +29113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="59">
         <v>45098</v>
       </c>
@@ -29123,7 +29172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="59">
         <v>45098</v>
       </c>
@@ -29182,7 +29231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="59">
         <v>45098</v>
       </c>
@@ -29241,7 +29290,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="472" spans="1:18" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:18" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A472" s="60">
         <v>45098</v>
       </c>
@@ -29300,7 +29349,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="59">
         <v>45099</v>
       </c>
@@ -29337,7 +29386,7 @@
         <v>264.00000000139698</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="59">
         <v>45099</v>
       </c>
@@ -29396,7 +29445,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="59">
         <v>45099</v>
       </c>
@@ -29455,7 +29504,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="59">
         <v>45099</v>
       </c>
@@ -29514,7 +29563,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="59">
         <v>45099</v>
       </c>
@@ -29548,7 +29597,7 @@
         <v>264.00000000139698</v>
       </c>
     </row>
-    <row r="478" spans="1:18" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:18" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A478" s="60">
         <v>45099</v>
       </c>
@@ -29582,7 +29631,7 @@
         <v>264.00000000139698</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3">
         <v>45187</v>
       </c>
@@ -29622,7 +29671,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="3">
         <v>45187</v>
       </c>
@@ -29668,7 +29717,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3">
         <v>45187</v>
       </c>
@@ -29714,7 +29763,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="3">
         <v>45187</v>
       </c>
@@ -29760,7 +29809,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="483" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
         <v>45187</v>
       </c>
@@ -29808,7 +29857,7 @@
       <c r="P483" s="25"/>
       <c r="Q483" s="19"/>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="3">
         <v>45188</v>
       </c>
@@ -29852,7 +29901,7 @@
         <v>195.99999999976717</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
         <v>45188</v>
       </c>
@@ -29905,7 +29954,7 @@
         <v>195.99999999976717</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="3">
         <v>45188</v>
       </c>
@@ -29955,7 +30004,7 @@
         <v>195.99999999976717</v>
       </c>
     </row>
-    <row r="487" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
         <v>45188</v>
       </c>
@@ -30008,7 +30057,7 @@
         <v>195.99999999976717</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="3">
         <v>45188</v>
       </c>
@@ -30045,7 +30094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3">
         <v>45188</v>
       </c>
@@ -30088,7 +30137,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="3">
         <v>45188</v>
       </c>
@@ -30131,7 +30180,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3">
         <v>45188</v>
       </c>
@@ -30174,7 +30223,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="492" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
         <v>45188</v>
       </c>
@@ -30219,7 +30268,7 @@
       <c r="P492" s="25"/>
       <c r="Q492" s="19"/>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
         <v>45189</v>
       </c>
@@ -30263,7 +30312,7 @@
         <v>179.00000000721775</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
         <v>45189</v>
       </c>
@@ -30316,7 +30365,7 @@
         <v>179.00000000721775</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="3">
         <v>45189</v>
       </c>
@@ -30369,7 +30418,7 @@
         <v>179.00000000721775</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="3">
         <v>45189</v>
       </c>
@@ -30422,7 +30471,7 @@
         <v>179.00000000721775</v>
       </c>
     </row>
-    <row r="497" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
         <v>45189</v>
       </c>
@@ -30475,7 +30524,7 @@
         <v>179.00000000721775</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="3">
         <v>45191</v>
       </c>
@@ -30522,7 +30571,7 @@
         <v>184.00000000256114</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3">
         <v>45191</v>
       </c>
@@ -30572,7 +30621,7 @@
         <v>184.00000000256114</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="3">
         <v>45191</v>
       </c>
@@ -30622,7 +30671,7 @@
         <v>184.00000000256114</v>
       </c>
     </row>
-    <row r="501" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
         <v>45191</v>
       </c>
@@ -30672,7 +30721,7 @@
         <v>184.00000000256114</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="3">
         <v>45282</v>
       </c>
@@ -30719,7 +30768,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="3">
         <v>45282</v>
       </c>
@@ -30769,7 +30818,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="3">
         <v>45282</v>
       </c>
@@ -30819,7 +30868,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="3">
         <v>45282</v>
       </c>
@@ -30869,7 +30918,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="3">
         <v>45282</v>
       </c>
@@ -30919,7 +30968,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="507" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:17" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="113">
         <v>45282</v>
       </c>
@@ -30969,7 +31018,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="3">
         <v>45287</v>
       </c>
@@ -31016,7 +31065,7 @@
         <v>374.99999999650754</v>
       </c>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="3">
         <v>45287</v>
       </c>
@@ -31066,7 +31115,7 @@
         <v>374.99999999650754</v>
       </c>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="3">
         <v>45287</v>
       </c>
@@ -31116,7 +31165,7 @@
         <v>374.99999999650754</v>
       </c>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="3">
         <v>45287</v>
       </c>
@@ -31166,7 +31215,7 @@
         <v>374.99999999650754</v>
       </c>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="3">
         <v>45287</v>
       </c>
@@ -31216,7 +31265,7 @@
         <v>374.99999999650754</v>
       </c>
     </row>
-    <row r="513" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
         <v>45287</v>
       </c>
@@ -31266,7 +31315,7 @@
         <v>374.99999999650754</v>
       </c>
     </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="3">
         <v>45288</v>
       </c>
@@ -31313,7 +31362,7 @@
         <v>368.00000000512227</v>
       </c>
     </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3">
         <v>45288</v>
       </c>
@@ -31363,7 +31412,7 @@
         <v>368.00000000512227</v>
       </c>
     </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="3">
         <v>45288</v>
       </c>
@@ -31413,7 +31462,7 @@
         <v>368.00000000512227</v>
       </c>
     </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="3">
         <v>45288</v>
       </c>
@@ -31463,7 +31512,7 @@
         <v>368.00000000512227</v>
       </c>
     </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="3">
         <v>45288</v>
       </c>
@@ -31513,7 +31562,7 @@
         <v>368.00000000512227</v>
       </c>
     </row>
-    <row r="519" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
         <v>45288</v>
       </c>
@@ -31563,7 +31612,7 @@
         <v>368.00000000512227</v>
       </c>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="3">
         <v>45290</v>
       </c>
@@ -31610,7 +31659,7 @@
         <v>294.99999999767169</v>
       </c>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3">
         <v>45290</v>
       </c>
@@ -31660,7 +31709,7 @@
         <v>294.99999999767169</v>
       </c>
     </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="3">
         <v>45290</v>
       </c>
@@ -31710,7 +31759,7 @@
         <v>294.99999999767169</v>
       </c>
     </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="3">
         <v>45290</v>
       </c>
@@ -31760,7 +31809,7 @@
         <v>294.99999999767169</v>
       </c>
     </row>
-    <row r="524" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
         <v>45290</v>
       </c>
@@ -31810,7 +31859,7 @@
         <v>294.99999999767169</v>
       </c>
     </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="3">
         <v>45291</v>
       </c>
@@ -31857,7 +31906,7 @@
         <v>323.99999999790452</v>
       </c>
     </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="3">
         <v>45291</v>
       </c>
@@ -31907,7 +31956,7 @@
         <v>323.99999999790452</v>
       </c>
     </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="3">
         <v>45291</v>
       </c>
@@ -31957,7 +32006,7 @@
         <v>323.99999999790452</v>
       </c>
     </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="3">
         <v>45291</v>
       </c>
@@ -32007,7 +32056,7 @@
         <v>323.99999999790452</v>
       </c>
     </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3">
         <v>45291</v>
       </c>
@@ -32057,7 +32106,7 @@
         <v>323.99999999790452</v>
       </c>
     </row>
-    <row r="530" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
         <v>45291</v>
       </c>
@@ -32107,7 +32156,7 @@
         <v>323.99999999790452</v>
       </c>
     </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="3">
         <v>45293</v>
       </c>
@@ -32157,7 +32206,7 @@
         <v>189.99999999068677</v>
       </c>
     </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="3">
         <v>45293</v>
       </c>
@@ -32210,7 +32259,7 @@
         <v>189.99999999068677</v>
       </c>
     </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="3">
         <v>45293</v>
       </c>
@@ -32263,7 +32312,7 @@
         <v>189.99999999068677</v>
       </c>
     </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="3">
         <v>45293</v>
       </c>
@@ -32316,7 +32365,7 @@
         <v>189.99999999068677</v>
       </c>
     </row>
-    <row r="535" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
         <v>45293</v>
       </c>
@@ -32369,7 +32418,7 @@
         <v>189.99999999068677</v>
       </c>
     </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="3">
         <v>45297</v>
       </c>
@@ -32419,7 +32468,7 @@
         <v>202.00000000884756</v>
       </c>
     </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="3">
         <v>45297</v>
       </c>
@@ -32472,7 +32521,7 @@
         <v>202.00000000884756</v>
       </c>
     </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="3">
         <v>45297</v>
       </c>
@@ -32525,7 +32574,7 @@
         <v>202.00000000884756</v>
       </c>
     </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="3">
         <v>45297</v>
       </c>
@@ -32578,7 +32627,7 @@
         <v>202.00000000884756</v>
       </c>
     </row>
-    <row r="540" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:17" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A540" s="5">
         <v>45297</v>
       </c>
@@ -32631,7 +32680,7 @@
         <v>202.00000000884756</v>
       </c>
     </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="3">
         <v>45298</v>
       </c>
@@ -32655,7 +32704,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="3">
         <v>45298</v>
       </c>
@@ -32708,7 +32757,7 @@
         <v>369.0000000083819</v>
       </c>
     </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3">
         <v>45298</v>
       </c>
@@ -32761,7 +32810,7 @@
         <v>369.0000000083819</v>
       </c>
     </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="3">
         <v>45298</v>
       </c>
@@ -32814,7 +32863,7 @@
         <v>369.0000000083819</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="3">
         <v>45298</v>
       </c>
@@ -32867,7 +32916,7 @@
         <v>369.0000000083819</v>
       </c>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="3">
         <v>45298</v>
       </c>
@@ -32921,6 +32970,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T546" xr:uid="{E8ABC72A-8D2A-8541-9A19-C52B1D3D5781}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Lactate"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H2:H6 H12 H14 H16 H18 H25 H31:H32 H39 H46 H51 H54 H56 H59 H63 H68">
     <cfRule type="cellIs" dxfId="85" priority="132" operator="equal">
@@ -33359,11 +33415,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B5A588-D913-6042-B9E0-BC7D0B1E3B58}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L278"/>
   <sheetViews>
     <sheetView zoomScale="157" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J260" sqref="J260"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33406,7 +33463,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="74">
         <v>369</v>
       </c>
@@ -33424,7 +33481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="74">
         <v>372</v>
       </c>
@@ -33448,7 +33505,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="74">
         <v>373</v>
       </c>
@@ -33472,7 +33529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77">
         <v>376</v>
       </c>
@@ -33496,7 +33553,7 @@
         <v>1.0399999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="74">
         <v>378</v>
       </c>
@@ -33514,7 +33571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="74">
         <v>381</v>
       </c>
@@ -33538,7 +33595,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="74">
         <v>382</v>
       </c>
@@ -33562,7 +33619,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="74">
         <v>385</v>
       </c>
@@ -33586,7 +33643,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="77">
         <v>386</v>
       </c>
@@ -33610,7 +33667,7 @@
         <v>1.25312</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="74">
         <v>387</v>
       </c>
@@ -33628,7 +33685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="74">
         <v>390</v>
       </c>
@@ -33652,7 +33709,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="74">
         <v>391</v>
       </c>
@@ -33676,7 +33733,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="74">
         <v>394</v>
       </c>
@@ -33700,7 +33757,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="77">
         <v>395</v>
       </c>
@@ -33724,7 +33781,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="74">
         <v>405</v>
       </c>
@@ -33742,7 +33799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="74">
         <v>408</v>
       </c>
@@ -33766,7 +33823,7 @@
         <v>1.1391999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="74">
         <v>409</v>
       </c>
@@ -33790,7 +33847,7 @@
         <v>1.1391999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74">
         <v>412</v>
       </c>
@@ -33814,7 +33871,7 @@
         <v>1.1391999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="77">
         <v>413</v>
       </c>
@@ -33838,7 +33895,7 @@
         <v>1.1391999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="74">
         <v>414</v>
       </c>
@@ -33856,7 +33913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="74">
         <v>415</v>
       </c>
@@ -33880,7 +33937,7 @@
         <v>2.0399999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="74">
         <v>416</v>
       </c>
@@ -33904,7 +33961,7 @@
         <v>2.0399999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="74">
         <v>417</v>
       </c>
@@ -33928,7 +33985,7 @@
         <v>2.0399999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="74">
         <v>418</v>
       </c>
@@ -33952,7 +34009,7 @@
         <v>2.0399999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="74">
         <v>421</v>
       </c>
@@ -33976,7 +34033,7 @@
         <v>2.0399999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="77">
         <v>422</v>
       </c>
@@ -34000,7 +34057,7 @@
         <v>2.0399999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="74">
         <v>423</v>
       </c>
@@ -34024,7 +34081,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="74">
         <v>424</v>
       </c>
@@ -34048,7 +34105,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="74">
         <v>425</v>
       </c>
@@ -34072,7 +34129,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="74">
         <v>426</v>
       </c>
@@ -34096,7 +34153,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="74">
         <v>427</v>
       </c>
@@ -34120,7 +34177,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="74">
         <v>430</v>
       </c>
@@ -34144,7 +34201,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="77">
         <v>431</v>
       </c>
@@ -34179,7 +34236,8 @@
         <v>208</v>
       </c>
       <c r="D35" s="74">
-        <v>12.27</v>
+        <f xml:space="preserve"> 12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="E35" s="75">
         <v>7.3999999999999996E-2</v>
@@ -34203,7 +34261,8 @@
         <v>208</v>
       </c>
       <c r="D36" s="74">
-        <v>12.27</v>
+        <f t="shared" ref="D36:D41" si="1" xml:space="preserve"> 12.27 * 1.06</f>
+        <v>13.0062</v>
       </c>
       <c r="E36" s="75">
         <v>7.3999999999999996E-2</v>
@@ -34227,7 +34286,8 @@
         <v>208</v>
       </c>
       <c r="D37" s="74">
-        <v>12.27</v>
+        <f t="shared" si="1"/>
+        <v>13.0062</v>
       </c>
       <c r="E37" s="75">
         <v>7.3999999999999996E-2</v>
@@ -34251,7 +34311,8 @@
         <v>208</v>
       </c>
       <c r="D38" s="74">
-        <v>12.27</v>
+        <f t="shared" si="1"/>
+        <v>13.0062</v>
       </c>
       <c r="E38" s="75">
         <v>7.3999999999999996E-2</v>
@@ -34275,7 +34336,8 @@
         <v>208</v>
       </c>
       <c r="D39" s="74">
-        <v>12.27</v>
+        <f t="shared" si="1"/>
+        <v>13.0062</v>
       </c>
       <c r="E39" s="75">
         <v>7.3999999999999996E-2</v>
@@ -34299,7 +34361,8 @@
         <v>208</v>
       </c>
       <c r="D40" s="74">
-        <v>12.27</v>
+        <f t="shared" si="1"/>
+        <v>13.0062</v>
       </c>
       <c r="E40" s="75">
         <v>7.3999999999999996E-2</v>
@@ -34323,7 +34386,8 @@
         <v>208</v>
       </c>
       <c r="D41" s="74">
-        <v>12.27</v>
+        <f t="shared" si="1"/>
+        <v>13.0062</v>
       </c>
       <c r="E41" s="75">
         <v>7.3999999999999996E-2</v>
@@ -34336,7 +34400,7 @@
         <v>0.73999999999999988</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="74">
         <v>441</v>
       </c>
@@ -34360,7 +34424,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="74">
         <v>442</v>
       </c>
@@ -34384,7 +34448,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="74">
         <v>443</v>
       </c>
@@ -34408,7 +34472,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="74">
         <v>444</v>
       </c>
@@ -34432,7 +34496,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="74">
         <v>445</v>
       </c>
@@ -34456,7 +34520,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="74">
         <v>448</v>
       </c>
@@ -34480,7 +34544,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="77">
         <v>449</v>
       </c>
@@ -34504,7 +34568,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="74">
         <v>450</v>
       </c>
@@ -34528,7 +34592,7 @@
         <v>1.1391999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="74">
         <v>451</v>
       </c>
@@ -34552,7 +34616,7 @@
         <v>1.1391999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="74">
         <v>452</v>
       </c>
@@ -34576,7 +34640,7 @@
         <v>1.1391999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="74">
         <v>453</v>
       </c>
@@ -34600,7 +34664,7 @@
         <v>1.1391999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="74">
         <v>454</v>
       </c>
@@ -34624,7 +34688,7 @@
         <v>1.1391999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="74">
         <v>457</v>
       </c>
@@ -34648,7 +34712,7 @@
         <v>1.1391999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="77">
         <v>458</v>
       </c>
@@ -34672,7 +34736,7 @@
         <v>1.1391999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="74">
         <v>459</v>
       </c>
@@ -34696,7 +34760,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="74">
         <v>460</v>
       </c>
@@ -34720,7 +34784,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="74">
         <v>461</v>
       </c>
@@ -34744,7 +34808,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="74">
         <v>462</v>
       </c>
@@ -34768,7 +34832,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="74">
         <v>463</v>
       </c>
@@ -34792,7 +34856,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="74">
         <v>466</v>
       </c>
@@ -34816,7 +34880,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="77">
         <v>467</v>
       </c>
@@ -34851,7 +34915,8 @@
         <v>208</v>
       </c>
       <c r="D63" s="18">
-        <v>12.3</v>
+        <f xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="E63" s="20">
         <v>7.3800000000000004E-2</v>
@@ -34860,7 +34925,7 @@
         <v>0.1</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" ref="G63:G104" si="1">E63/F63</f>
+        <f t="shared" ref="G63:G104" si="2">E63/F63</f>
         <v>0.73799999999999999</v>
       </c>
     </row>
@@ -34875,7 +34940,8 @@
         <v>208</v>
       </c>
       <c r="D64" s="18">
-        <v>12.3</v>
+        <f t="shared" ref="D64:D69" si="3" xml:space="preserve"> 12.3 * 1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="E64" s="20">
         <v>7.3800000000000004E-2</v>
@@ -34884,7 +34950,7 @@
         <v>0.1</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73799999999999999</v>
       </c>
     </row>
@@ -34899,7 +34965,8 @@
         <v>208</v>
       </c>
       <c r="D65" s="18">
-        <v>12.3</v>
+        <f t="shared" si="3"/>
+        <v>13.038000000000002</v>
       </c>
       <c r="E65" s="20">
         <v>7.3800000000000004E-2</v>
@@ -34908,7 +34975,7 @@
         <v>0.1</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73799999999999999</v>
       </c>
     </row>
@@ -34923,7 +34990,8 @@
         <v>208</v>
       </c>
       <c r="D66" s="18">
-        <v>12.3</v>
+        <f t="shared" si="3"/>
+        <v>13.038000000000002</v>
       </c>
       <c r="E66" s="20">
         <v>7.3800000000000004E-2</v>
@@ -34932,7 +35000,7 @@
         <v>0.1</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73799999999999999</v>
       </c>
     </row>
@@ -34947,7 +35015,8 @@
         <v>208</v>
       </c>
       <c r="D67" s="18">
-        <v>12.3</v>
+        <f t="shared" si="3"/>
+        <v>13.038000000000002</v>
       </c>
       <c r="E67" s="20">
         <v>7.3800000000000004E-2</v>
@@ -34956,7 +35025,7 @@
         <v>0.1</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73799999999999999</v>
       </c>
     </row>
@@ -34971,7 +35040,8 @@
         <v>208</v>
       </c>
       <c r="D68" s="18">
-        <v>12.3</v>
+        <f t="shared" si="3"/>
+        <v>13.038000000000002</v>
       </c>
       <c r="E68" s="20">
         <v>7.3800000000000004E-2</v>
@@ -34980,7 +35050,7 @@
         <v>0.1</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73799999999999999</v>
       </c>
     </row>
@@ -34994,8 +35064,9 @@
       <c r="C69" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D69" s="19">
-        <v>12.3</v>
+      <c r="D69" s="18">
+        <f t="shared" si="3"/>
+        <v>13.038000000000002</v>
       </c>
       <c r="E69" s="21">
         <v>7.3800000000000004E-2</v>
@@ -35004,11 +35075,11 @@
         <v>0.1</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>477</v>
       </c>
@@ -35028,11 +35099,11 @@
         <v>0.1</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>478</v>
       </c>
@@ -35052,11 +35123,11 @@
         <v>0.1</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>479</v>
       </c>
@@ -35076,11 +35147,11 @@
         <v>0.1</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>480</v>
       </c>
@@ -35100,11 +35171,11 @@
         <v>0.1</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>481</v>
       </c>
@@ -35124,11 +35195,11 @@
         <v>0.1</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>484</v>
       </c>
@@ -35148,11 +35219,11 @@
         <v>0.1</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>485</v>
       </c>
@@ -35172,11 +35243,11 @@
         <v>0.1</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>486</v>
       </c>
@@ -35196,11 +35267,11 @@
         <v>0.1</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>487</v>
       </c>
@@ -35220,11 +35291,11 @@
         <v>0.1</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>488</v>
       </c>
@@ -35244,11 +35315,11 @@
         <v>0.1</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>489</v>
       </c>
@@ -35268,11 +35339,11 @@
         <v>0.1</v>
       </c>
       <c r="G80" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>490</v>
       </c>
@@ -35292,11 +35363,11 @@
         <v>0.1</v>
       </c>
       <c r="G81" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>493</v>
       </c>
@@ -35316,11 +35387,11 @@
         <v>0.1</v>
       </c>
       <c r="G82" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>494</v>
       </c>
@@ -35340,11 +35411,11 @@
         <v>0.1</v>
       </c>
       <c r="G83" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>495</v>
       </c>
@@ -35364,11 +35435,11 @@
         <v>0.1</v>
       </c>
       <c r="G84" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61357142857142888</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>496</v>
       </c>
@@ -35388,11 +35459,11 @@
         <v>0.1</v>
       </c>
       <c r="G85" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61357142857142888</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>497</v>
       </c>
@@ -35412,11 +35483,11 @@
         <v>0.1</v>
       </c>
       <c r="G86" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61357142857142888</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>498</v>
       </c>
@@ -35436,11 +35507,11 @@
         <v>0.1</v>
       </c>
       <c r="G87" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61357142857142888</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>499</v>
       </c>
@@ -35460,11 +35531,11 @@
         <v>0.1</v>
       </c>
       <c r="G88" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61357142857142888</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>502</v>
       </c>
@@ -35484,11 +35555,11 @@
         <v>0.1</v>
       </c>
       <c r="G89" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>503</v>
       </c>
@@ -35508,11 +35579,11 @@
         <v>0.1</v>
       </c>
       <c r="G90" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>504</v>
       </c>
@@ -35532,11 +35603,11 @@
         <v>0.1</v>
       </c>
       <c r="G91" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>505</v>
       </c>
@@ -35556,11 +35627,11 @@
         <v>0.1</v>
       </c>
       <c r="G92" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>506</v>
       </c>
@@ -35580,11 +35651,11 @@
         <v>0.1</v>
       </c>
       <c r="G93" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>507</v>
       </c>
@@ -35604,11 +35675,11 @@
         <v>0.1</v>
       </c>
       <c r="G94" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>508</v>
       </c>
@@ -35628,11 +35699,11 @@
         <v>0.1</v>
       </c>
       <c r="G95" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>511</v>
       </c>
@@ -35652,11 +35723,11 @@
         <v>0.1</v>
       </c>
       <c r="G96" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>512</v>
       </c>
@@ -35676,11 +35747,11 @@
         <v>0.1</v>
       </c>
       <c r="G97" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>513</v>
       </c>
@@ -35700,11 +35771,11 @@
         <v>0.1</v>
       </c>
       <c r="G98" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>514</v>
       </c>
@@ -35724,11 +35795,11 @@
         <v>0.1</v>
       </c>
       <c r="G99" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>515</v>
       </c>
@@ -35748,11 +35819,11 @@
         <v>0.1</v>
       </c>
       <c r="G100" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>516</v>
       </c>
@@ -35772,11 +35843,11 @@
         <v>0.1</v>
       </c>
       <c r="G101" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>517</v>
       </c>
@@ -35796,11 +35867,11 @@
         <v>0.1</v>
       </c>
       <c r="G102" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>520</v>
       </c>
@@ -35820,11 +35891,11 @@
         <v>0.1</v>
       </c>
       <c r="G103" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>521</v>
       </c>
@@ -35844,11 +35915,11 @@
         <v>0.1</v>
       </c>
       <c r="G104" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>522</v>
       </c>
@@ -35860,11 +35931,11 @@
         <v>0.1</v>
       </c>
       <c r="G105" s="20">
-        <f t="shared" ref="G105:G119" si="2">E105/F105</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G105:G119" si="4">E105/F105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>523</v>
       </c>
@@ -35884,11 +35955,11 @@
         <v>0.1</v>
       </c>
       <c r="G106" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.62254500000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>524</v>
       </c>
@@ -35908,11 +35979,11 @@
         <v>0.1</v>
       </c>
       <c r="G107" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.60983999999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>525</v>
       </c>
@@ -35932,11 +36003,11 @@
         <v>0.1</v>
       </c>
       <c r="G108" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>526</v>
       </c>
@@ -35956,11 +36027,11 @@
         <v>0.1</v>
       </c>
       <c r="G109" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>529</v>
       </c>
@@ -35980,11 +36051,11 @@
         <v>0.1</v>
       </c>
       <c r="G110" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>530</v>
       </c>
@@ -36004,11 +36075,11 @@
         <v>0.1</v>
       </c>
       <c r="G111" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>531</v>
       </c>
@@ -36028,11 +36099,11 @@
         <v>0.1</v>
       </c>
       <c r="G112" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>532</v>
       </c>
@@ -36052,11 +36123,11 @@
         <v>0.1</v>
       </c>
       <c r="G113" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>533</v>
       </c>
@@ -36076,11 +36147,11 @@
         <v>0.1</v>
       </c>
       <c r="G114" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>534</v>
       </c>
@@ -36100,11 +36171,11 @@
         <v>0.1</v>
       </c>
       <c r="G115" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>535</v>
       </c>
@@ -36124,11 +36195,11 @@
         <v>0.1</v>
       </c>
       <c r="G116" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>538</v>
       </c>
@@ -36148,11 +36219,11 @@
         <v>0.1</v>
       </c>
       <c r="G117" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>539</v>
       </c>
@@ -36172,7 +36243,7 @@
         <v>0.1</v>
       </c>
       <c r="G118" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36187,7 +36258,8 @@
         <v>208</v>
       </c>
       <c r="D119" s="1">
-        <v>12.5</v>
+        <f xml:space="preserve"> 12.5 * 1.06</f>
+        <v>13.25</v>
       </c>
       <c r="E119" s="20">
         <v>0.04</v>
@@ -36196,7 +36268,7 @@
         <v>0.1</v>
       </c>
       <c r="G119" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
@@ -36211,7 +36283,8 @@
         <v>208</v>
       </c>
       <c r="D120" s="1">
-        <v>12.5</v>
+        <f t="shared" ref="D120:D126" si="5" xml:space="preserve"> 12.5 * 1.06</f>
+        <v>13.25</v>
       </c>
       <c r="E120" s="20">
         <v>0.04</v>
@@ -36220,7 +36293,7 @@
         <v>0.1</v>
       </c>
       <c r="G120" s="20">
-        <f t="shared" ref="G120:G143" si="3">E120/F120</f>
+        <f t="shared" ref="G120:G143" si="6">E120/F120</f>
         <v>0.39999999999999997</v>
       </c>
     </row>
@@ -36235,7 +36308,8 @@
         <v>208</v>
       </c>
       <c r="D121" s="1">
-        <v>12.5</v>
+        <f t="shared" si="5"/>
+        <v>13.25</v>
       </c>
       <c r="E121" s="20">
         <v>0.04</v>
@@ -36244,7 +36318,7 @@
         <v>0.1</v>
       </c>
       <c r="G121" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
@@ -36259,7 +36333,8 @@
         <v>208</v>
       </c>
       <c r="D122" s="1">
-        <v>12.5</v>
+        <f t="shared" si="5"/>
+        <v>13.25</v>
       </c>
       <c r="E122" s="20">
         <v>0.04</v>
@@ -36268,7 +36343,7 @@
         <v>0.1</v>
       </c>
       <c r="G122" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
@@ -36283,7 +36358,8 @@
         <v>208</v>
       </c>
       <c r="D123" s="1">
-        <v>12.5</v>
+        <f t="shared" si="5"/>
+        <v>13.25</v>
       </c>
       <c r="E123" s="20">
         <v>0.04</v>
@@ -36292,7 +36368,7 @@
         <v>0.1</v>
       </c>
       <c r="G123" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
@@ -36307,7 +36383,8 @@
         <v>208</v>
       </c>
       <c r="D124" s="1">
-        <v>12.5</v>
+        <f t="shared" si="5"/>
+        <v>13.25</v>
       </c>
       <c r="E124" s="20">
         <v>0.04</v>
@@ -36316,7 +36393,7 @@
         <v>0.1</v>
       </c>
       <c r="G124" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
@@ -36331,7 +36408,8 @@
         <v>208</v>
       </c>
       <c r="D125" s="1">
-        <v>12.5</v>
+        <f t="shared" si="5"/>
+        <v>13.25</v>
       </c>
       <c r="E125" s="20">
         <v>0.04</v>
@@ -36340,7 +36418,7 @@
         <v>0.1</v>
       </c>
       <c r="G125" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
@@ -36354,8 +36432,9 @@
       <c r="C126" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D126" s="4">
-        <v>12.5</v>
+      <c r="D126" s="1">
+        <f t="shared" si="5"/>
+        <v>13.25</v>
       </c>
       <c r="E126" s="21">
         <v>0.04</v>
@@ -36364,11 +36443,11 @@
         <v>0.1</v>
       </c>
       <c r="G126" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>549</v>
       </c>
@@ -36388,11 +36467,11 @@
         <v>0.1</v>
       </c>
       <c r="G127" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.162399999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>550</v>
       </c>
@@ -36412,11 +36491,11 @@
         <v>0.1</v>
       </c>
       <c r="G128" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.162399999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>551</v>
       </c>
@@ -36436,11 +36515,11 @@
         <v>0.1</v>
       </c>
       <c r="G129" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.162399999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="61">
         <v>552</v>
       </c>
@@ -36460,11 +36539,11 @@
         <v>0.1</v>
       </c>
       <c r="G130" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.162399999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>553</v>
       </c>
@@ -36484,11 +36563,11 @@
         <v>0.1</v>
       </c>
       <c r="G131" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.162399999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>554</v>
       </c>
@@ -36508,11 +36587,11 @@
         <v>0.1</v>
       </c>
       <c r="G132" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.162399999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>555</v>
       </c>
@@ -36532,11 +36611,11 @@
         <v>0.1</v>
       </c>
       <c r="G133" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.162399999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>556</v>
       </c>
@@ -36556,11 +36635,11 @@
         <v>0.1</v>
       </c>
       <c r="G134" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.162399999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>557</v>
       </c>
@@ -36580,11 +36659,11 @@
         <v>0.1</v>
       </c>
       <c r="G135" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.162399999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>558</v>
       </c>
@@ -36604,11 +36683,11 @@
         <v>0.1</v>
       </c>
       <c r="G136" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7352000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>559</v>
       </c>
@@ -36628,11 +36707,11 @@
         <v>0.1</v>
       </c>
       <c r="G137" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7352000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>560</v>
       </c>
@@ -36652,11 +36731,11 @@
         <v>0.1</v>
       </c>
       <c r="G138" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7352000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>561</v>
       </c>
@@ -36676,11 +36755,11 @@
         <v>0.1</v>
       </c>
       <c r="G139" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7352000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>562</v>
       </c>
@@ -36700,11 +36779,11 @@
         <v>0.1</v>
       </c>
       <c r="G140" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7352000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>563</v>
       </c>
@@ -36724,11 +36803,11 @@
         <v>0.1</v>
       </c>
       <c r="G141" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7352000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>564</v>
       </c>
@@ -36748,11 +36827,11 @@
         <v>0.1</v>
       </c>
       <c r="G142" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7352000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>565</v>
       </c>
@@ -36772,7 +36851,7 @@
         <v>0.1</v>
       </c>
       <c r="G143" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7352000000000001</v>
       </c>
     </row>
@@ -36787,7 +36866,8 @@
         <v>208</v>
       </c>
       <c r="D144" s="1">
-        <v>12.3</v>
+        <f>12.3*1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="E144" s="20">
         <v>8.4870000000000001E-2</v>
@@ -36796,7 +36876,7 @@
         <v>0.1</v>
       </c>
       <c r="G144" s="20">
-        <f t="shared" ref="G144:G172" si="4">E144/F144</f>
+        <f t="shared" ref="G144:G172" si="7">E144/F144</f>
         <v>0.84870000000000001</v>
       </c>
     </row>
@@ -36811,7 +36891,8 @@
         <v>208</v>
       </c>
       <c r="D145" s="1">
-        <v>12.3</v>
+        <f t="shared" ref="D145:D148" si="8">12.3*1.06</f>
+        <v>13.038000000000002</v>
       </c>
       <c r="E145" s="20">
         <v>8.4870000000000001E-2</v>
@@ -36820,7 +36901,7 @@
         <v>0.1</v>
       </c>
       <c r="G145" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.84870000000000001</v>
       </c>
     </row>
@@ -36835,7 +36916,8 @@
         <v>208</v>
       </c>
       <c r="D146" s="1">
-        <v>12.3</v>
+        <f t="shared" si="8"/>
+        <v>13.038000000000002</v>
       </c>
       <c r="E146" s="20">
         <v>8.4870000000000001E-2</v>
@@ -36844,7 +36926,7 @@
         <v>0.1</v>
       </c>
       <c r="G146" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.84870000000000001</v>
       </c>
     </row>
@@ -36859,7 +36941,8 @@
         <v>208</v>
       </c>
       <c r="D147" s="1">
-        <v>12.3</v>
+        <f t="shared" si="8"/>
+        <v>13.038000000000002</v>
       </c>
       <c r="E147" s="20">
         <v>8.4870000000000001E-2</v>
@@ -36868,7 +36951,7 @@
         <v>0.1</v>
       </c>
       <c r="G147" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.84870000000000001</v>
       </c>
     </row>
@@ -36882,8 +36965,9 @@
       <c r="C148" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D148" s="4">
-        <v>12.3</v>
+      <c r="D148" s="1">
+        <f t="shared" si="8"/>
+        <v>13.038000000000002</v>
       </c>
       <c r="E148" s="21">
         <v>7.7490000000000003E-2</v>
@@ -36892,11 +36976,11 @@
         <v>0.1</v>
       </c>
       <c r="G148" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.77490000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>623</v>
       </c>
@@ -36916,11 +37000,11 @@
         <v>0.1</v>
       </c>
       <c r="G149" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.61357142857142888</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>624</v>
       </c>
@@ -36940,11 +37024,11 @@
         <v>0.1</v>
       </c>
       <c r="G150" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.61357142857142888</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>625</v>
       </c>
@@ -36964,11 +37048,11 @@
         <v>0.1</v>
       </c>
       <c r="G151" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>626</v>
       </c>
@@ -36988,11 +37072,11 @@
         <v>0.1</v>
       </c>
       <c r="G152" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>627</v>
       </c>
@@ -37012,11 +37096,11 @@
         <v>0.1</v>
       </c>
       <c r="G153" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>640</v>
       </c>
@@ -37036,14 +37120,14 @@
         <v>0.1</v>
       </c>
       <c r="G154" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3967999999999998</v>
       </c>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c r="L154" s="18"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>641</v>
       </c>
@@ -37063,14 +37147,14 @@
         <v>0.1</v>
       </c>
       <c r="G155" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3967999999999998</v>
       </c>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c r="L155" s="18"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>642</v>
       </c>
@@ -37090,14 +37174,14 @@
         <v>0.1</v>
       </c>
       <c r="G156" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3967999999999998</v>
       </c>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
       <c r="L156" s="18"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>643</v>
       </c>
@@ -37117,14 +37201,14 @@
         <v>0.1</v>
       </c>
       <c r="G157" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3967999999999998</v>
       </c>
       <c r="J157" s="9"/>
       <c r="K157" s="9"/>
       <c r="L157" s="18"/>
     </row>
-    <row r="158" spans="1:12" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>644</v>
       </c>
@@ -37144,14 +37228,14 @@
         <v>0.1</v>
       </c>
       <c r="G158" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3967999999999998</v>
       </c>
       <c r="J158" s="10"/>
       <c r="K158" s="10"/>
       <c r="L158" s="19"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>658</v>
       </c>
@@ -37171,14 +37255,14 @@
         <v>0.1</v>
       </c>
       <c r="G159" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0399999999999996</v>
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
       <c r="L159" s="18"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>659</v>
       </c>
@@ -37198,14 +37282,14 @@
         <v>0.1</v>
       </c>
       <c r="G160" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0399999999999996</v>
       </c>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
       <c r="L160" s="18"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>660</v>
       </c>
@@ -37225,14 +37309,14 @@
         <v>0.1</v>
       </c>
       <c r="G161" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0399999999999996</v>
       </c>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
       <c r="L161" s="18"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>661</v>
       </c>
@@ -37252,14 +37336,14 @@
         <v>0.1</v>
       </c>
       <c r="G162" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0399999999999996</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="18"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>662</v>
       </c>
@@ -37279,14 +37363,14 @@
         <v>0.1</v>
       </c>
       <c r="G163" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0399999999999996</v>
       </c>
       <c r="J163" s="9"/>
       <c r="K163" s="9"/>
       <c r="L163" s="18"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>663</v>
       </c>
@@ -37306,14 +37390,14 @@
         <v>0.1</v>
       </c>
       <c r="G164" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0399999999999996</v>
       </c>
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
       <c r="L164" s="18"/>
     </row>
-    <row r="165" spans="1:12" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>664</v>
       </c>
@@ -37333,14 +37417,14 @@
         <v>0.1</v>
       </c>
       <c r="G165" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0399999999999996</v>
       </c>
       <c r="J165" s="10"/>
       <c r="K165" s="10"/>
       <c r="L165" s="19"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>676</v>
       </c>
@@ -37360,14 +37444,14 @@
         <v>0.1</v>
       </c>
       <c r="G166" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1392</v>
       </c>
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
       <c r="L166" s="18"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>677</v>
       </c>
@@ -37387,14 +37471,14 @@
         <v>0.1</v>
       </c>
       <c r="G167" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1392</v>
       </c>
       <c r="J167" s="9"/>
       <c r="K167" s="9"/>
       <c r="L167" s="18"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>678</v>
       </c>
@@ -37414,14 +37498,14 @@
         <v>0.1</v>
       </c>
       <c r="G168" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1392</v>
       </c>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
       <c r="L168" s="18"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>679</v>
       </c>
@@ -37441,14 +37525,14 @@
         <v>0.1</v>
       </c>
       <c r="G169" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29640000000000005</v>
       </c>
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
       <c r="L169" s="18"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>680</v>
       </c>
@@ -37475,7 +37559,7 @@
       <c r="K170" s="9"/>
       <c r="L170" s="18"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>681</v>
       </c>
@@ -37495,14 +37579,14 @@
         <v>0.1</v>
       </c>
       <c r="G171" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29640000000000005</v>
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
       <c r="L171" s="18"/>
     </row>
-    <row r="172" spans="1:12" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>682</v>
       </c>
@@ -37522,14 +37606,14 @@
         <v>0.1</v>
       </c>
       <c r="G172" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0399999999999996</v>
       </c>
       <c r="J172" s="10"/>
       <c r="K172" s="10"/>
       <c r="L172" s="19"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>703</v>
       </c>
@@ -37549,11 +37633,11 @@
         <v>0.1</v>
       </c>
       <c r="G173" s="20">
-        <f t="shared" ref="G173:G179" si="5">E173/F173</f>
+        <f t="shared" ref="G173:G179" si="9">E173/F173</f>
         <v>2.2025999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>704</v>
       </c>
@@ -37573,11 +37657,11 @@
         <v>0.1</v>
       </c>
       <c r="G174" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.2025999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>705</v>
       </c>
@@ -37597,11 +37681,11 @@
         <v>0.1</v>
       </c>
       <c r="G175" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.2025999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>706</v>
       </c>
@@ -37621,11 +37705,11 @@
         <v>0.1</v>
       </c>
       <c r="G176" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>707</v>
       </c>
@@ -37645,11 +37729,11 @@
         <v>0.1</v>
       </c>
       <c r="G177" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>708</v>
       </c>
@@ -37669,11 +37753,11 @@
         <v>0.1</v>
       </c>
       <c r="G178" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>709</v>
       </c>
@@ -37693,11 +37777,11 @@
         <v>0.1</v>
       </c>
       <c r="G179" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>784</v>
       </c>
@@ -37717,11 +37801,11 @@
         <v>0.1</v>
       </c>
       <c r="G180" s="20">
-        <f t="shared" ref="G180:G186" si="6">E180/F180</f>
+        <f t="shared" ref="G180:G186" si="10">E180/F180</f>
         <v>1.3967999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>785</v>
       </c>
@@ -37741,11 +37825,11 @@
         <v>0.1</v>
       </c>
       <c r="G181" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.3967999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>786</v>
       </c>
@@ -37765,11 +37849,11 @@
         <v>0.1</v>
       </c>
       <c r="G182" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0199999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>787</v>
       </c>
@@ -37789,11 +37873,11 @@
         <v>0.1</v>
       </c>
       <c r="G183" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0199999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>788</v>
       </c>
@@ -37813,11 +37897,11 @@
         <v>0.1</v>
       </c>
       <c r="G184" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.64760000000000006</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>789</v>
       </c>
@@ -37837,11 +37921,11 @@
         <v>0.1</v>
       </c>
       <c r="G185" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.58284000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>790</v>
       </c>
@@ -37861,11 +37945,11 @@
         <v>0.1</v>
       </c>
       <c r="G186" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.64760000000000006</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>837</v>
       </c>
@@ -37885,11 +37969,11 @@
         <v>0.1</v>
       </c>
       <c r="G187" s="20">
-        <f t="shared" ref="G187:G188" si="7">E187/F187</f>
+        <f t="shared" ref="G187:G188" si="11">E187/F187</f>
         <v>2.5811999999999995</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>838</v>
       </c>
@@ -37909,11 +37993,11 @@
         <v>0.1</v>
       </c>
       <c r="G188" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.5811999999999995</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>840</v>
       </c>
@@ -37933,11 +38017,11 @@
         <v>0.1</v>
       </c>
       <c r="G189" s="20">
-        <f t="shared" ref="G189:G192" si="8">E189/F189</f>
+        <f t="shared" ref="G189:G192" si="12">E189/F189</f>
         <v>2.5811999999999995</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>841</v>
       </c>
@@ -37957,11 +38041,11 @@
         <v>0.1</v>
       </c>
       <c r="G190" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.5811999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>842</v>
       </c>
@@ -37981,11 +38065,11 @@
         <v>0.1</v>
       </c>
       <c r="G191" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.5811999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>843</v>
       </c>
@@ -38005,11 +38089,11 @@
         <v>0.1</v>
       </c>
       <c r="G192" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.5811999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>847</v>
       </c>
@@ -38029,11 +38113,11 @@
         <v>0.1</v>
       </c>
       <c r="G193" s="20">
-        <f t="shared" ref="G193:G197" si="9">E193/F193</f>
+        <f t="shared" ref="G193:G197" si="13">E193/F193</f>
         <v>2.5847999999999995</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>848</v>
       </c>
@@ -38053,11 +38137,11 @@
         <v>0.1</v>
       </c>
       <c r="G194" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.6496</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>849</v>
       </c>
@@ -38077,11 +38161,11 @@
         <v>0.1</v>
       </c>
       <c r="G195" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.3183999999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>850</v>
       </c>
@@ -38101,11 +38185,11 @@
         <v>0.1</v>
       </c>
       <c r="G196" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.6640000000000006</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>851</v>
       </c>
@@ -38125,11 +38209,11 @@
         <v>0.1</v>
       </c>
       <c r="G197" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.3255999999999997</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>856</v>
       </c>
@@ -38149,11 +38233,11 @@
         <v>0.1</v>
       </c>
       <c r="G198" s="20">
-        <f t="shared" ref="G198:G199" si="10">E198/F198</f>
+        <f t="shared" ref="G198:G199" si="14">E198/F198</f>
         <v>2.5343999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="14">
         <v>857</v>
       </c>
@@ -38173,11 +38257,11 @@
         <v>0.1</v>
       </c>
       <c r="G199" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.6568000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>858</v>
       </c>
@@ -38197,11 +38281,11 @@
         <v>0.1</v>
       </c>
       <c r="G200" s="20">
-        <f t="shared" ref="G200:G235" si="11">E200/F200</f>
+        <f t="shared" ref="G200:G235" si="15">E200/F200</f>
         <v>2.4767999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>859</v>
       </c>
@@ -38221,11 +38305,11 @@
         <v>0.1</v>
       </c>
       <c r="G201" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5991999999999997</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>860</v>
       </c>
@@ -38249,7 +38333,7 @@
         <v>2.7431999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>861</v>
       </c>
@@ -38269,11 +38353,11 @@
         <v>0.1</v>
       </c>
       <c r="G203" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.0023999999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>862</v>
       </c>
@@ -38293,11 +38377,11 @@
         <v>0.1</v>
       </c>
       <c r="G204" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.2623999999999995</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>883</v>
       </c>
@@ -38317,11 +38401,11 @@
         <v>0.1</v>
       </c>
       <c r="G205" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.4047999999999994</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>884</v>
       </c>
@@ -38341,11 +38425,11 @@
         <v>0.1</v>
       </c>
       <c r="G206" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6640000000000006</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>885</v>
       </c>
@@ -38365,11 +38449,11 @@
         <v>0.1</v>
       </c>
       <c r="G207" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5775999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>886</v>
       </c>
@@ -38389,11 +38473,11 @@
         <v>0.1</v>
       </c>
       <c r="G208" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5847999999999995</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>887</v>
       </c>
@@ -38413,11 +38497,11 @@
         <v>0.1</v>
       </c>
       <c r="G209" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.4695999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>888</v>
       </c>
@@ -38437,11 +38521,11 @@
         <v>0.1</v>
       </c>
       <c r="G210" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.4983999999999997</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>889</v>
       </c>
@@ -38461,11 +38545,11 @@
         <v>0.1</v>
       </c>
       <c r="G211" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5415999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>892</v>
       </c>
@@ -38485,11 +38569,11 @@
         <v>0.1</v>
       </c>
       <c r="G212" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6640000000000006</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>893</v>
       </c>
@@ -38509,11 +38593,11 @@
         <v>0.1</v>
       </c>
       <c r="G213" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.3544</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>894</v>
       </c>
@@ -38533,11 +38617,11 @@
         <v>0.1</v>
       </c>
       <c r="G214" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6640000000000006</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>895</v>
       </c>
@@ -38557,11 +38641,11 @@
         <v>0.1</v>
       </c>
       <c r="G215" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6568000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>896</v>
       </c>
@@ -38581,11 +38665,11 @@
         <v>0.1</v>
       </c>
       <c r="G216" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6640000000000006</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>901</v>
       </c>
@@ -38605,11 +38689,11 @@
         <v>0.1</v>
       </c>
       <c r="G217" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.3759999999999994</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>902</v>
       </c>
@@ -38629,11 +38713,11 @@
         <v>0.1</v>
       </c>
       <c r="G218" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6640000000000006</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>903</v>
       </c>
@@ -38653,11 +38737,11 @@
         <v>0.1</v>
       </c>
       <c r="G219" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5919999999999996</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>904</v>
       </c>
@@ -38677,11 +38761,11 @@
         <v>0.1</v>
       </c>
       <c r="G220" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6279999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>905</v>
       </c>
@@ -38701,11 +38785,11 @@
         <v>0.1</v>
       </c>
       <c r="G221" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5343999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>906</v>
       </c>
@@ -38725,11 +38809,11 @@
         <v>0.1</v>
       </c>
       <c r="G222" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.4263999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>907</v>
       </c>
@@ -38749,11 +38833,11 @@
         <v>0.1</v>
       </c>
       <c r="G223" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6351999999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>910</v>
       </c>
@@ -38773,11 +38857,11 @@
         <v>0.1</v>
       </c>
       <c r="G224" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6640000000000006</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>911</v>
       </c>
@@ -38797,11 +38881,11 @@
         <v>0.1</v>
       </c>
       <c r="G225" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.4335999999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>912</v>
       </c>
@@ -38821,11 +38905,11 @@
         <v>0.1</v>
       </c>
       <c r="G226" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6640000000000006</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>913</v>
       </c>
@@ -38845,11 +38929,11 @@
         <v>0.1</v>
       </c>
       <c r="G227" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6640000000000006</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>914</v>
       </c>
@@ -38869,11 +38953,11 @@
         <v>0.1</v>
       </c>
       <c r="G228" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6640000000000006</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>919</v>
       </c>
@@ -38893,11 +38977,11 @@
         <v>0.1</v>
       </c>
       <c r="G229" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.3903999999999996</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>920</v>
       </c>
@@ -38917,11 +39001,11 @@
         <v>0.1</v>
       </c>
       <c r="G230" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6640000000000006</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>921</v>
       </c>
@@ -38941,11 +39025,11 @@
         <v>0.1</v>
       </c>
       <c r="G231" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5775999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>937</v>
       </c>
@@ -38965,11 +39049,11 @@
         <v>0.1</v>
       </c>
       <c r="G232" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>938</v>
       </c>
@@ -38989,11 +39073,11 @@
         <v>0.1</v>
       </c>
       <c r="G233" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>939</v>
       </c>
@@ -39013,11 +39097,11 @@
         <v>0.1</v>
       </c>
       <c r="G234" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>955</v>
       </c>
@@ -39037,11 +39121,11 @@
         <v>0.1</v>
       </c>
       <c r="G235" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>956</v>
       </c>
@@ -39061,11 +39145,11 @@
         <v>0.1</v>
       </c>
       <c r="G236" s="20">
-        <f t="shared" ref="G236:G238" si="12">E236/F236</f>
+        <f t="shared" ref="G236:G238" si="16">E236/F236</f>
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>957</v>
       </c>
@@ -39085,11 +39169,11 @@
         <v>0.1</v>
       </c>
       <c r="G237" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>958</v>
       </c>
@@ -39109,11 +39193,11 @@
         <v>0.1</v>
       </c>
       <c r="G238" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>964</v>
       </c>
@@ -39133,11 +39217,11 @@
         <v>0.1</v>
       </c>
       <c r="G239" s="20">
-        <f t="shared" ref="G239:G241" si="13">E239/F239</f>
+        <f t="shared" ref="G239:G241" si="17">E239/F239</f>
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>965</v>
       </c>
@@ -39157,11 +39241,11 @@
         <v>0.1</v>
       </c>
       <c r="G240" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>966</v>
       </c>
@@ -39181,11 +39265,11 @@
         <v>0.1</v>
       </c>
       <c r="G241" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>973</v>
       </c>
@@ -39205,11 +39289,11 @@
         <v>0.1</v>
       </c>
       <c r="G242" s="20">
-        <f t="shared" ref="G242:G246" si="14">E242/F242</f>
+        <f t="shared" ref="G242:G246" si="18">E242/F242</f>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>974</v>
       </c>
@@ -39229,11 +39313,11 @@
         <v>0.1</v>
       </c>
       <c r="G243" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>975</v>
       </c>
@@ -39253,11 +39337,11 @@
         <v>0.1</v>
       </c>
       <c r="G244" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>976</v>
       </c>
@@ -39277,11 +39361,11 @@
         <v>0.1</v>
       </c>
       <c r="G245" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>977</v>
       </c>
@@ -39301,11 +39385,11 @@
         <v>0.1</v>
       </c>
       <c r="G246" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>982</v>
       </c>
@@ -39325,11 +39409,11 @@
         <v>0.1</v>
       </c>
       <c r="G247" s="20">
-        <f t="shared" ref="G247:G251" si="15">E247/F247</f>
+        <f t="shared" ref="G247:G251" si="19">E247/F247</f>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>983</v>
       </c>
@@ -39349,11 +39433,11 @@
         <v>0.1</v>
       </c>
       <c r="G248" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>984</v>
       </c>
@@ -39373,11 +39457,11 @@
         <v>0.1</v>
       </c>
       <c r="G249" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>985</v>
       </c>
@@ -39397,11 +39481,11 @@
         <v>0.1</v>
       </c>
       <c r="G250" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" s="4" customFormat="1" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>986</v>
       </c>
@@ -39421,11 +39505,11 @@
         <v>0.1</v>
       </c>
       <c r="G251" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>991</v>
       </c>
@@ -39445,11 +39529,11 @@
         <v>0.1</v>
       </c>
       <c r="G252" s="20">
-        <f t="shared" ref="G252" si="16">E252/F252</f>
+        <f t="shared" ref="G252" si="20">E252/F252</f>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>992</v>
       </c>
@@ -39469,11 +39553,11 @@
         <v>0.1</v>
       </c>
       <c r="G253" s="20">
-        <f t="shared" ref="G253:G265" si="17">E253/F253</f>
+        <f t="shared" ref="G253:G265" si="21">E253/F253</f>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>993</v>
       </c>
@@ -39493,11 +39577,11 @@
         <v>0.1</v>
       </c>
       <c r="G254" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>994</v>
       </c>
@@ -39517,11 +39601,11 @@
         <v>0.1</v>
       </c>
       <c r="G255" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>995</v>
       </c>
@@ -39541,11 +39625,11 @@
         <v>0.1</v>
       </c>
       <c r="G256" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>1000</v>
       </c>
@@ -39565,11 +39649,11 @@
         <v>0.1</v>
       </c>
       <c r="G257" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>1001</v>
       </c>
@@ -39589,11 +39673,11 @@
         <v>0.1</v>
       </c>
       <c r="G258" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>1002</v>
       </c>
@@ -39613,11 +39697,11 @@
         <v>0.1</v>
       </c>
       <c r="G259" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>1003</v>
       </c>
@@ -39637,11 +39721,11 @@
         <v>0.1</v>
       </c>
       <c r="G260" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>1009</v>
       </c>
@@ -39661,11 +39745,11 @@
         <v>0.1</v>
       </c>
       <c r="G261" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>1010</v>
       </c>
@@ -39685,11 +39769,11 @@
         <v>0.1</v>
       </c>
       <c r="G262" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>1011</v>
       </c>
@@ -39709,11 +39793,11 @@
         <v>0.1</v>
       </c>
       <c r="G263" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>1012</v>
       </c>
@@ -39733,11 +39817,11 @@
         <v>0.1</v>
       </c>
       <c r="G264" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>1013</v>
       </c>
@@ -39757,11 +39841,11 @@
         <v>0.1</v>
       </c>
       <c r="G265" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>1018</v>
       </c>
@@ -39781,11 +39865,11 @@
         <v>0.1</v>
       </c>
       <c r="G266" s="20">
-        <f t="shared" ref="G266:G278" si="18">E266/F266</f>
+        <f t="shared" ref="G266:G278" si="22">E266/F266</f>
         <v>1.6199999999999997</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>1019</v>
       </c>
@@ -39805,11 +39889,11 @@
         <v>0.1</v>
       </c>
       <c r="G267" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.6199999999999997</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>1020</v>
       </c>
@@ -39829,11 +39913,11 @@
         <v>0.1</v>
       </c>
       <c r="G268" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.6199999999999997</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>1021</v>
       </c>
@@ -39853,11 +39937,11 @@
         <v>0.1</v>
       </c>
       <c r="G269" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.6199999999999997</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>1027</v>
       </c>
@@ -39877,11 +39961,11 @@
         <v>0.1</v>
       </c>
       <c r="G270" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.2759999999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>1028</v>
       </c>
@@ -39901,11 +39985,11 @@
         <v>0.1</v>
       </c>
       <c r="G271" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.2759999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>1029</v>
       </c>
@@ -39925,11 +40009,11 @@
         <v>0.1</v>
       </c>
       <c r="G272" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.2759999999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>1030</v>
       </c>
@@ -39949,11 +40033,11 @@
         <v>0.1</v>
       </c>
       <c r="G273" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.2759999999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>1036</v>
       </c>
@@ -39973,11 +40057,11 @@
         <v>0.1</v>
       </c>
       <c r="G274" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>1037</v>
       </c>
@@ -39997,11 +40081,11 @@
         <v>0.1</v>
       </c>
       <c r="G275" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>1038</v>
       </c>
@@ -40021,11 +40105,11 @@
         <v>0.1</v>
       </c>
       <c r="G276" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>1039</v>
       </c>
@@ -40045,11 +40129,11 @@
         <v>0.1</v>
       </c>
       <c r="G277" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>1040</v>
       </c>
@@ -40069,11 +40153,18 @@
         <v>0.1</v>
       </c>
       <c r="G278" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.1079999999999997</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G278" xr:uid="{35B5A588-D913-6042-B9E0-BC7D0B1E3B58}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Lactate"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
